--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5197361289288</v>
+        <v>471.4220793957403</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.858766592233333</v>
+        <v>6.858731220966215</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.143250561776</v>
+        <v>536.1441013910837</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>955.2327062429426</v>
+        <v>955.2343740844387</v>
       </c>
       <c r="E5" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.4922888728514</v>
+        <v>463.4960073439058</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>872.2303636881061</v>
+        <v>872.2352451234009</v>
       </c>
       <c r="E6" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.2601431879424</v>
+        <v>298.2425759344002</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.6513517336713</v>
+        <v>688.6328379382584</v>
       </c>
       <c r="E7" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.9860820461043</v>
+        <v>230.9766948217294</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.885048668395</v>
+        <v>615.8755806915962</v>
       </c>
       <c r="E8" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.0633038497583</v>
+        <v>230.0538683273621</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.8941296672674</v>
+        <v>614.8846115141459</v>
       </c>
       <c r="E9" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.4065098463522</v>
+        <v>170.3666718302908</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.204651672148</v>
+        <v>551.162951410287</v>
       </c>
       <c r="E10" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.8441021393746</v>
+        <v>103.8166287313448</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.8927768090448</v>
+        <v>480.8644787108761</v>
       </c>
       <c r="E11" t="n">
-        <v>478.3785027211621</v>
+        <v>478.2808106167065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792727746394699</v>
+        <v>0.7792725701911463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220305186750515</v>
+        <v>0.1220301863987358</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098717551656676</v>
+        <v>0.03098735209081621</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117808183004219</v>
+        <v>0.06117843572108038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531449338869972</v>
+        <v>0.00653145559822148</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.501486878029553</v>
+        <v>6.501453349285582</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3572797142037839</v>
+        <v>0.3572778716806368</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381348248923432</v>
+        <v>2.381357843149597</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944175</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6493538810461417</v>
+        <v>0.6492916677678815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6809562671113787</v>
+        <v>0.6809104498883728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9535911664352623</v>
+        <v>0.9535639640635933</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.90305997784058</v>
+        <v>51.89362734928247</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.1132608611065</v>
+        <v>34.10758693651044</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492990061666159</v>
+        <v>0.8492995151052586</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.79143226842194</v>
+        <v>12.78942619107448</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8159001697820568</v>
+        <v>0.8159162628691357</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.633855185360904</v>
+        <v>4.632930055362263</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8119091388197009</v>
+        <v>0.811916382272037</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3645116629512433</v>
+        <v>0.3636841663352758</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1928318046921061</v>
+        <v>0.1925973435055685</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07481580521453571</v>
+        <v>0.07476152111294261</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08367650225541351</v>
+        <v>0.08361604905133591</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941077028550802</v>
+        <v>0.8941049231714229</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41373.78009390643</v>
+        <v>41376.69492911853</v>
       </c>
       <c r="C2" t="n">
-        <v>41791.69706455195</v>
+        <v>41794.64134254397</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90426.57828362174</v>
+        <v>90426.32241234921</v>
       </c>
       <c r="C3" t="n">
-        <v>91339.97806426439</v>
+        <v>91339.71960843354</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39190.41591817341</v>
+        <v>39186.64249036124</v>
       </c>
       <c r="C4" t="n">
-        <v>39586.27870522566</v>
+        <v>39582.46716198105</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.5061103540799</v>
+        <v>513.505807952562</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6930407616968</v>
+        <v>518.6927353056182</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32911.97564854908</v>
+        <v>32912.91656117627</v>
       </c>
       <c r="C6" t="n">
-        <v>33244.41984701927</v>
+        <v>33245.37026381442</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37494.43747651654</v>
+        <v>37494.72378087338</v>
       </c>
       <c r="C7" t="n">
-        <v>37873.16916819852</v>
+        <v>37873.45836451856</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.47199028589682</v>
+        <v>48.45791269270988</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.48272725302473</v>
+        <v>98.49573737995637</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.783071916028197</v>
+        <v>8.784139382283501</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510.1446247316808</v>
+        <v>510.1595231139279</v>
       </c>
       <c r="C3" t="n">
-        <v>7.132420475131224</v>
+        <v>7.130738276588563</v>
       </c>
       <c r="D3" t="n">
-        <v>3434.448753625243</v>
+        <v>3434.504725092143</v>
       </c>
       <c r="E3" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.3711675947928</v>
+        <v>290.3541081054938</v>
       </c>
       <c r="C4" t="n">
-        <v>7.482098063306005</v>
+        <v>7.480241243102006</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.13929048523</v>
+        <v>2766.165135580747</v>
       </c>
       <c r="E4" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.6335285951362</v>
+        <v>289.597836641023</v>
       </c>
       <c r="C5" t="n">
-        <v>7.482098063306005</v>
+        <v>7.480241243102006</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.986012099818</v>
+        <v>1287.791926875051</v>
       </c>
       <c r="E5" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2244939932477</v>
+        <v>165.1916896184438</v>
       </c>
       <c r="C6" t="n">
-        <v>7.482098063306005</v>
+        <v>7.480241243102006</v>
       </c>
       <c r="D6" t="n">
-        <v>702.0756640471185</v>
+        <v>701.9326571326503</v>
       </c>
       <c r="E6" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.567280051966</v>
+        <v>159.5230663582785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6114602031512831</v>
+        <v>0.6107713623070284</v>
       </c>
       <c r="D7" t="n">
-        <v>673.5938015270441</v>
+        <v>673.4017777086103</v>
       </c>
       <c r="E7" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.113276121224</v>
+        <v>172.0657405415412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6044947632131618</v>
+        <v>0.6042323876107425</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.550178013443</v>
+        <v>2787.489793497002</v>
       </c>
       <c r="E8" t="n">
-        <v>15.341218969609</v>
+        <v>15.34699698219291</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.5672799263666</v>
+        <v>159.5230662327687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6114602031512831</v>
+        <v>0.6107713623070284</v>
       </c>
       <c r="D9" t="n">
-        <v>2756.964233498727</v>
+        <v>2756.91537266152</v>
       </c>
       <c r="E9" t="n">
-        <v>15.341218969609</v>
+        <v>15.34699698219291</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.567280051966</v>
+        <v>159.5230663582785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6114602031512831</v>
+        <v>0.6107713623070284</v>
       </c>
       <c r="D10" t="n">
-        <v>697.8299257528231</v>
+        <v>697.7551898255359</v>
       </c>
       <c r="E10" t="n">
-        <v>74.15466317631365</v>
+        <v>74.15204961462959</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.567280051966</v>
+        <v>159.5230663582785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6114602031512831</v>
+        <v>0.6107713623070284</v>
       </c>
       <c r="D11" t="n">
-        <v>697.8299257528231</v>
+        <v>697.7551898255359</v>
       </c>
       <c r="E11" t="n">
-        <v>74.63660088119396</v>
+        <v>74.61953838160152</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6114602031512831</v>
+        <v>0.6107713623070284</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6770736994986</v>
+        <v>251.6764952890441</v>
       </c>
       <c r="E12" t="n">
-        <v>74.62978945317897</v>
+        <v>74.62366932899617</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.30083082146399</v>
+        <v>59.30539737960913</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>248.8234346368849</v>
+        <v>248.842538059751</v>
       </c>
       <c r="E13" t="n">
-        <v>74.15806528336678</v>
+        <v>74.15136497913697</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.97916287885243</v>
+        <v>58.9841204870624</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>247.4778137393412</v>
+        <v>247.4985523723309</v>
       </c>
       <c r="E14" t="n">
-        <v>68.10709901074161</v>
+        <v>68.10068894233322</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.64610694828275</v>
+        <v>94.65124025308739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08351230866386015</v>
+        <v>0.08352812391484138</v>
       </c>
       <c r="D15" t="n">
-        <v>396.5982283463098</v>
+        <v>396.6198508389029</v>
       </c>
       <c r="E15" t="n">
-        <v>63.66268650875962</v>
+        <v>63.66333399851047</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.5710122991967</v>
+        <v>61.57207792876505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08351587395118591</v>
+        <v>0.08352833311010979</v>
       </c>
       <c r="D16" t="n">
-        <v>257.8089610427957</v>
+        <v>257.8134318651877</v>
       </c>
       <c r="E16" t="n">
-        <v>63.66391368032706</v>
+        <v>63.66540979541628</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.0706022902293</v>
+        <v>664.0740777769682</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.65358052640478</v>
+        <v>83.65401833664482</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.87538369434267</v>
+        <v>77.87810059127237</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>326.0642315282128</v>
+        <v>326.0756071756575</v>
       </c>
       <c r="E19" t="n">
-        <v>83.65358052640478</v>
+        <v>83.65401833664482</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.9632309384419</v>
+        <v>111.9630749000137</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1530989813169094</v>
+        <v>0.1530923605411022</v>
       </c>
       <c r="D20" t="n">
-        <v>2670.426786703015</v>
+        <v>2670.458346993225</v>
       </c>
       <c r="E20" t="n">
-        <v>18.64899766225751</v>
+        <v>18.64273685380674</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.4263011250558</v>
+        <v>110.4250104436208</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1454440322510639</v>
+        <v>0.1454377425140471</v>
       </c>
       <c r="D21" t="n">
-        <v>463.2193589908691</v>
+        <v>463.2138962300671</v>
       </c>
       <c r="E21" t="n">
-        <v>18.64899766225751</v>
+        <v>18.64273685380674</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.72561746276914</v>
+        <v>91.73036868788154</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>384.0551603166144</v>
+        <v>384.07505369616</v>
       </c>
       <c r="E22" t="n">
-        <v>664.0706022902293</v>
+        <v>664.0740777769682</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>664.0706022902293</v>
+        <v>664.0740777769682</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.04617190378116</v>
+        <v>56.04651415376979</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.0706022902293</v>
+        <v>664.0740777769682</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.04264280617826</v>
+        <v>96.0478208900808</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08790769333037911</v>
+        <v>0.08792434096299093</v>
       </c>
       <c r="D25" t="n">
-        <v>2595.087742941908</v>
+        <v>2595.14365150063</v>
       </c>
       <c r="E25" t="n">
-        <v>45.01507636983877</v>
+        <v>45.02061292186607</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>507.4321097766851</v>
+        <v>507.4478042556069</v>
       </c>
       <c r="C26" t="n">
-        <v>6.557473615140604</v>
+        <v>6.555862481531149</v>
       </c>
       <c r="D26" t="n">
-        <v>3434.448753625243</v>
+        <v>3434.504725092143</v>
       </c>
       <c r="E26" t="n">
-        <v>52.76593988957639</v>
+        <v>52.75194021779271</v>
       </c>
       <c r="F26" t="n">
-        <v>6.858189770112729</v>
+        <v>6.858369254849619</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.7411274757999</v>
+        <v>194.7670539205851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4473592485020207</v>
+        <v>0.4473178239788377</v>
       </c>
       <c r="D27" t="n">
-        <v>2847.36532852359</v>
+        <v>2847.422737016883</v>
       </c>
       <c r="E27" t="n">
-        <v>52.76593988957639</v>
+        <v>52.75194021779271</v>
       </c>
       <c r="F27" t="n">
-        <v>7.093024804164958</v>
+        <v>7.093189164367646</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.2842344880297</v>
+        <v>169.2578668647759</v>
       </c>
       <c r="C28" t="n">
-        <v>0.514338256658525</v>
+        <v>0.5143472946745085</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.550178013443</v>
+        <v>2787.489793497002</v>
       </c>
       <c r="E28" t="n">
-        <v>15.341218969609</v>
+        <v>15.34699698219291</v>
       </c>
       <c r="F28" t="n">
-        <v>6.899113595117218</v>
+        <v>6.898969303441023</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.4341873751726</v>
+        <v>188.4443610763331</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4473592485020207</v>
+        <v>0.4473178239788377</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.891894349459</v>
+        <v>2833.916054810781</v>
       </c>
       <c r="E29" t="n">
-        <v>68.10715885918539</v>
+        <v>68.09893719998563</v>
       </c>
       <c r="F29" t="n">
-        <v>7.064032646717967</v>
+        <v>7.064126589321778</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.963310142613</v>
+        <v>111.9637948248575</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1530945633168297</v>
+        <v>0.1530970269412163</v>
       </c>
       <c r="D30" t="n">
-        <v>2670.427094294229</v>
+        <v>2670.461143154974</v>
       </c>
       <c r="E30" t="n">
-        <v>68.10715885918539</v>
+        <v>68.09893719998563</v>
       </c>
       <c r="F30" t="n">
-        <v>7.154859920772964</v>
+        <v>7.154941134658141</v>
       </c>
       <c r="G30" t="n">
-        <v>98.93878756059942</v>
+        <v>98.94028486365264</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.04292110531247</v>
+        <v>96.04755147658881</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08790858800054913</v>
+        <v>0.08792347472923184</v>
       </c>
       <c r="D31" t="n">
-        <v>2595.089016836224</v>
+        <v>2595.141872431076</v>
       </c>
       <c r="E31" t="n">
-        <v>49.45954872026454</v>
+        <v>49.45621612334124</v>
       </c>
       <c r="F31" t="n">
-        <v>7.201218092813093</v>
+        <v>7.201286730426335</v>
       </c>
       <c r="G31" t="n">
-        <v>96.72688100382138</v>
+        <v>96.72886864781825</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.40821277928416</v>
+        <v>51.4338996061789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008495289740583537</v>
+        <v>0.008481735986647695</v>
       </c>
       <c r="D32" t="n">
-        <v>2595.089016836224</v>
+        <v>2595.141872431076</v>
       </c>
       <c r="E32" t="n">
-        <v>4.443185330414551</v>
+        <v>4.435279146916947</v>
       </c>
       <c r="F32" t="n">
-        <v>8.258762038570442</v>
+        <v>8.259659886531022</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.62189897072545</v>
+        <v>47.68435549266627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002571824082236584</v>
+        <v>0.002571330948074473</v>
       </c>
       <c r="D33" t="n">
-        <v>2589.516340613653</v>
+        <v>2589.634140302152</v>
       </c>
       <c r="E33" t="n">
-        <v>4.443185330414551</v>
+        <v>4.435279146916947</v>
       </c>
       <c r="F33" t="n">
-        <v>8.792096995630901</v>
+        <v>8.792552626574469</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.53874998152884</v>
+        <v>21.53561741475818</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002571824082236584</v>
+        <v>0.002571330948074473</v>
       </c>
       <c r="D34" t="n">
-        <v>90.35225499745334</v>
+        <v>90.33914989361874</v>
       </c>
       <c r="E34" t="n">
-        <v>4.443185330414551</v>
+        <v>4.435279146916947</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.55918483334403</v>
+        <v>23.55604981915292</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.44859118055584</v>
+        <v>99.43548618188537</v>
       </c>
       <c r="E35" t="n">
-        <v>4.443185330414551</v>
+        <v>4.435279146916947</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1443585175026</v>
+        <v>495.1536932256828</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.532121138081</v>
+        <v>3457.552702301865</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082086887992179</v>
+        <v>5.08210736323809</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>6.050966272625175</v>
+        <v>6.050676036803756</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1443585175026</v>
+        <v>510.1536932256828</v>
       </c>
       <c r="C42" t="n">
-        <v>7.132653933175864</v>
+        <v>7.130903694930276</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.445769688967</v>
+        <v>3434.486150424697</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050966272625175</v>
+        <v>6.050676036803756</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986958923136298</v>
+        <v>5.986983044025789</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381348248923432</v>
+        <v>2.381357843149597</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944175</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.675116432227428</v>
+        <v>1.677759866180377</v>
       </c>
       <c r="C2" t="n">
-        <v>1.832052039769551</v>
+        <v>1.835086599586511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9143388920535992</v>
+        <v>0.9142674065400601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2652306272707345</v>
+        <v>0.2647175347148623</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>140.099005717036</v>
+        <v>140.0514338127685</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.57708909057909</v>
+        <v>32.5729005358094</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.247146225788157</v>
+        <v>6.247045288695288</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.86207957009555</v>
+        <v>45.85025416239876</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.97800871908047</v>
+        <v>30.96971393788899</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493078072858737</v>
+        <v>0.8493085868373413</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.13312310524654</v>
+        <v>11.13110576387796</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8237343329072274</v>
+        <v>0.8237457158382939</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.726187312525264</v>
+        <v>3.725006131173579</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148781062386877</v>
+        <v>0.8148794816334264</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02476043324327481</v>
+        <v>0.0244283294582215</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03381528586069864</v>
+        <v>0.03345913885058992</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04041670748928008</v>
+        <v>0.04034479065269288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0452869417298678</v>
+        <v>0.04520652165996542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924583101760727</v>
+        <v>0.8924550965490882</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39309.47099019439</v>
+        <v>39299.92177316609</v>
       </c>
       <c r="C2" t="n">
-        <v>39706.53635373171</v>
+        <v>39696.89067996575</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86942.05034109492</v>
+        <v>86935.37305829169</v>
       </c>
       <c r="C3" t="n">
-        <v>87820.25286979285</v>
+        <v>87813.50813968858</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34461.73675783195</v>
+        <v>34450.41597444003</v>
       </c>
       <c r="C4" t="n">
-        <v>34809.83510892116</v>
+        <v>34798.39997418185</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.2940045966077</v>
+        <v>469.2219260721871</v>
       </c>
       <c r="C5" t="n">
-        <v>474.0343480773815</v>
+        <v>473.9615414870577</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30163.00035117366</v>
+        <v>30172.07877583277</v>
       </c>
       <c r="C6" t="n">
-        <v>30467.67712239764</v>
+        <v>30476.84724831593</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33299.33252632373</v>
+        <v>33286.18640271274</v>
       </c>
       <c r="C7" t="n">
-        <v>33635.68942052902</v>
+        <v>33622.41050779064</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.750584097926</v>
+        <v>40.73758669292673</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.20540006557951</v>
+        <v>99.21817832703806</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.747816494897034</v>
+        <v>8.748813896179405</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17241.68770979477</v>
+        <v>17241.86177060276</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1942.759261226903</v>
+        <v>1941.909345288828</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11386.43101064071</v>
+        <v>11386.37228980696</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.873745112259</v>
+        <v>3937.889610431974</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.935548407058</v>
+        <v>2844.947010382471</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.50297158631</v>
+        <v>10560.54551885086</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19286.07152633254</v>
+        <v>19285.29148495414</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8457020748342147</v>
+        <v>0.8454149089265272</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.9260230703166</v>
+        <v>461.9210558644169</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.0993738020893</v>
+        <v>867.0937548646524</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9516935758232</v>
+        <v>304.9469917782857</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7837610704787</v>
+        <v>692.7786353769364</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1153806286619</v>
+        <v>235.1173814428784</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2362672511709</v>
+        <v>617.2384156068481</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1933882400407</v>
+        <v>234.1953899736811</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2463798312683</v>
+        <v>616.2485287698859</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.7533166843469</v>
+        <v>174.7536323883663</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.801855994588</v>
+        <v>552.8021911328357</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.2988153091153</v>
+        <v>106.2986090027932</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.5237054021107</v>
+        <v>480.523488630507</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.1961820539802</v>
+        <v>504.190696746602</v>
       </c>
       <c r="C3" t="n">
-        <v>7.843486217272444</v>
+        <v>7.84265397442724</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.713923759</v>
+        <v>3411.707947831342</v>
       </c>
       <c r="E3" t="n">
-        <v>63.05957628982853</v>
+        <v>63.05814718274899</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.7771592041801</v>
+        <v>296.7724334266832</v>
       </c>
       <c r="C4" t="n">
-        <v>8.20472109520176</v>
+        <v>8.204169033123383</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.602619480482</v>
+        <v>2755.611026478258</v>
       </c>
       <c r="E4" t="n">
-        <v>63.05957628982853</v>
+        <v>63.05814718274899</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.814674338523</v>
+        <v>295.811397062238</v>
       </c>
       <c r="C5" t="n">
-        <v>8.20472109520176</v>
+        <v>8.204169033123383</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.634576022165</v>
+        <v>1321.616706611549</v>
       </c>
       <c r="E5" t="n">
-        <v>63.05957628982853</v>
+        <v>63.05814718274899</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.6901750708753</v>
+        <v>164.6900767470774</v>
       </c>
       <c r="C6" t="n">
-        <v>8.20472109520176</v>
+        <v>8.204169033123383</v>
       </c>
       <c r="D6" t="n">
-        <v>700.1817167672655</v>
+        <v>700.1809724318758</v>
       </c>
       <c r="E6" t="n">
-        <v>63.05957628982853</v>
+        <v>63.05814718274899</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.3129560719622</v>
+        <v>163.3129581135541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6721044170318852</v>
+        <v>0.6721044513408888</v>
       </c>
       <c r="D7" t="n">
-        <v>689.8842501610574</v>
+        <v>689.884259052617</v>
       </c>
       <c r="E7" t="n">
-        <v>63.05957628982853</v>
+        <v>63.05814718274899</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.7618324447276</v>
+        <v>175.7652683588223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6649989264880701</v>
+        <v>0.6650035033118883</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.813528676763</v>
+        <v>2791.821587811014</v>
       </c>
       <c r="E8" t="n">
-        <v>16.67471518387981</v>
+        <v>16.67666620305043</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.3129559386593</v>
+        <v>163.3129579802513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6721044170318852</v>
+        <v>0.6721044513408888</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.028190914918</v>
+        <v>2761.028193088929</v>
       </c>
       <c r="E9" t="n">
-        <v>16.67471518387981</v>
+        <v>16.67666620305043</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.3129560719622</v>
+        <v>163.3129581135541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6721044170318852</v>
+        <v>0.6721044513408888</v>
       </c>
       <c r="D10" t="n">
-        <v>710.2566311697988</v>
+        <v>710.2556277202154</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73429147370834</v>
+        <v>79.73481338579941</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.3129560719622</v>
+        <v>163.3129581135541</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6721044170318852</v>
+        <v>0.6721044513408888</v>
       </c>
       <c r="D11" t="n">
-        <v>710.2566311697988</v>
+        <v>710.2556277202154</v>
       </c>
       <c r="E11" t="n">
-        <v>81.77118476184985</v>
+        <v>81.77200439818584</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6721044170318852</v>
+        <v>0.6721044513408888</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7279954552982</v>
+        <v>251.727995484116</v>
       </c>
       <c r="E12" t="n">
-        <v>81.76909093828857</v>
+        <v>81.76770308060718</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.19774019003148</v>
+        <v>57.20102267347369</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>240.0264414820679</v>
+        <v>240.0401703319752</v>
       </c>
       <c r="E13" t="n">
-        <v>75.48711381538826</v>
+        <v>75.48158391162123</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.19774019003148</v>
+        <v>57.20102267347369</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>240.0264414820679</v>
+        <v>240.0401703319752</v>
       </c>
       <c r="E14" t="n">
-        <v>75.48711381538826</v>
+        <v>75.48158391162123</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.69445803149495</v>
+        <v>92.69968322744921</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07767703835123882</v>
+        <v>0.07769219562665668</v>
       </c>
       <c r="D15" t="n">
-        <v>388.3795639749132</v>
+        <v>388.4015625714134</v>
       </c>
       <c r="E15" t="n">
-        <v>67.26330594597729</v>
+        <v>67.2636253962941</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.25493916617785</v>
+        <v>61.25600688881718</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07767710624205187</v>
+        <v>0.07769064654959779</v>
       </c>
       <c r="D16" t="n">
-        <v>256.481110478166</v>
+        <v>256.4855908346415</v>
       </c>
       <c r="E16" t="n">
-        <v>67.26222295140633</v>
+        <v>67.26266091375435</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.8434653449419</v>
+        <v>76.84637535655688</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>321.7435893992718</v>
+        <v>321.7557736179037</v>
       </c>
       <c r="E19" t="n">
         <v>87.61056310256292</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.7400519487622</v>
+        <v>112.7404453645234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1570818621599747</v>
+        <v>0.1570745389789883</v>
       </c>
       <c r="D20" t="n">
-        <v>2653.436211553478</v>
+        <v>2653.450572356158</v>
       </c>
       <c r="E20" t="n">
-        <v>22.38792604803886</v>
+        <v>22.3812164524954</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.1945550113281</v>
+        <v>111.1931572139089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.149227769051976</v>
+        <v>0.1492208120300389</v>
       </c>
       <c r="D21" t="n">
-        <v>466.4714054195189</v>
+        <v>466.4654876899765</v>
       </c>
       <c r="E21" t="n">
-        <v>22.38792604803886</v>
+        <v>22.3812164524954</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.73597076012911</v>
+        <v>89.74080512313226</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>375.7245095726606</v>
+        <v>375.7447510505548</v>
       </c>
       <c r="E22" t="n">
         <v>695.4824771444306</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.91618020645176</v>
+        <v>55.91654678327374</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.07402637977265</v>
+        <v>94.07929685071446</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08176530352761982</v>
+        <v>0.08178125855437546</v>
       </c>
       <c r="D25" t="n">
-        <v>2566.167117655629</v>
+        <v>2566.203264694304</v>
       </c>
       <c r="E25" t="n">
-        <v>44.87544890667254</v>
+        <v>44.88168427581531</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.3546640637318</v>
+        <v>501.3471641600801</v>
       </c>
       <c r="C26" t="n">
-        <v>7.252010766373864</v>
+        <v>7.250967456094138</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.713923759</v>
+        <v>3411.707947831342</v>
       </c>
       <c r="E26" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F26" t="n">
-        <v>6.784957851336048</v>
+        <v>6.785012755988626</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.5117187801266</v>
+        <v>188.5144044366478</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4889091726634276</v>
+        <v>0.4888756994763765</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.689044732826</v>
+        <v>2831.6967853603</v>
       </c>
       <c r="E27" t="n">
-        <v>58.81344420670465</v>
+        <v>58.80505263243668</v>
       </c>
       <c r="F27" t="n">
-        <v>7.019413868612165</v>
+        <v>7.019461311767052</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.825620434572</v>
+        <v>172.8286800703237</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5680381993337743</v>
+        <v>0.5680232441577361</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.813528676763</v>
+        <v>2791.821587811014</v>
       </c>
       <c r="E28" t="n">
-        <v>16.67471518387981</v>
+        <v>16.67666620305043</v>
       </c>
       <c r="F28" t="n">
-        <v>6.864662248852547</v>
+        <v>6.864691981137362</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.4589052636322</v>
+        <v>184.460753042349</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4889091726634276</v>
+        <v>0.4888756994763765</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.880870332855</v>
+        <v>2822.886899078305</v>
       </c>
       <c r="E29" t="n">
-        <v>75.48815939058446</v>
+        <v>75.48171883548711</v>
       </c>
       <c r="F29" t="n">
-        <v>7.000250264247242</v>
+        <v>7.000294077380621</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.7386928195963</v>
+        <v>112.7401452315096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.157077668810499</v>
+        <v>0.1570852088107938</v>
       </c>
       <c r="D30" t="n">
-        <v>2653.431351736997</v>
+        <v>2653.449499024537</v>
       </c>
       <c r="E30" t="n">
-        <v>75.48815939058446</v>
+        <v>75.48171883548711</v>
       </c>
       <c r="F30" t="n">
-        <v>7.099332238297611</v>
+        <v>7.099357977907172</v>
       </c>
       <c r="G30" t="n">
-        <v>98.12047100511884</v>
+        <v>98.12118614004672</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.07340047462532</v>
+        <v>94.07852619980855</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08176340892894235</v>
+        <v>0.08177892544081035</v>
       </c>
       <c r="D31" t="n">
-        <v>2566.165272634357</v>
+        <v>2566.199980199286</v>
       </c>
       <c r="E31" t="n">
-        <v>53.10030235127969</v>
+        <v>53.09977771500833</v>
       </c>
       <c r="F31" t="n">
-        <v>7.154384527239367</v>
+        <v>7.154396440760685</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60024462418737</v>
+        <v>95.60138345722689</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.23966329855369</v>
+        <v>54.22484379008608</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01519678530669078</v>
+        <v>0.01518594145060014</v>
       </c>
       <c r="D32" t="n">
-        <v>2566.165272634357</v>
+        <v>2566.199980199286</v>
       </c>
       <c r="E32" t="n">
-        <v>8.224890863981919</v>
+        <v>8.218922997866883</v>
       </c>
       <c r="F32" t="n">
-        <v>7.902986526098776</v>
+        <v>7.903416004463562</v>
       </c>
       <c r="G32" t="n">
-        <v>98.62571065407838</v>
+        <v>98.62829259238603</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.97632390322423</v>
+        <v>22.97413189188774</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002807045694454995</v>
+        <v>0.002806673189139533</v>
       </c>
       <c r="D33" t="n">
-        <v>2521.847157174917</v>
+        <v>2521.950366663587</v>
       </c>
       <c r="E33" t="n">
-        <v>8.224890863981919</v>
+        <v>8.218922997866883</v>
       </c>
       <c r="F33" t="n">
-        <v>8.529441186727546</v>
+        <v>8.529850352974483</v>
       </c>
       <c r="G33" t="n">
-        <v>99.14202438217912</v>
+        <v>99.14640742128887</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.97632390322423</v>
+        <v>22.97413189188774</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002807045694454995</v>
+        <v>0.002806673189139533</v>
       </c>
       <c r="D34" t="n">
-        <v>96.36576082841167</v>
+        <v>96.35659229208103</v>
       </c>
       <c r="E34" t="n">
-        <v>8.224890863981919</v>
+        <v>8.218922997866883</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.99784381532646</v>
+        <v>24.995650208222</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>105.4620280557576</v>
+        <v>105.4528596658411</v>
       </c>
       <c r="E35" t="n">
-        <v>8.224890863981919</v>
+        <v>8.218922997866883</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1443585175026</v>
+        <v>495.1536932256828</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.532121138081</v>
+        <v>3457.552702301865</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082086887992179</v>
+        <v>5.08210736323809</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1443585175026</v>
+        <v>510.1536932256828</v>
       </c>
       <c r="C42" t="n">
-        <v>7.132653933175864</v>
+        <v>7.130903694930276</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.445769688967</v>
+        <v>3434.486150424697</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050966272625175</v>
+        <v>6.050676036803756</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>471.4220793957403</v>
+        <v>471.3465636240896</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.858731220966215</v>
+        <v>6.858690736706626</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.1441013910837</v>
+        <v>536.1447514885232</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>955.2343740844387</v>
+        <v>955.2356484412352</v>
       </c>
       <c r="E5" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.4960073439058</v>
+        <v>463.4928743187823</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>872.2352451234009</v>
+        <v>872.2322066709985</v>
       </c>
       <c r="E6" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.2425759344002</v>
+        <v>298.2349423551053</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.6328379382584</v>
+        <v>688.6250001997695</v>
       </c>
       <c r="E7" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.9766948217294</v>
+        <v>230.9763098433183</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.8755806915962</v>
+        <v>615.875635902873</v>
       </c>
       <c r="E8" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.0538683273621</v>
+        <v>230.0534783180613</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.8846115141459</v>
+        <v>614.8846612459492</v>
       </c>
       <c r="E9" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.3666718302908</v>
+        <v>170.3638899131303</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.162951410287</v>
+        <v>551.1604562621237</v>
       </c>
       <c r="E10" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.8166287313448</v>
+        <v>103.8202629378247</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.8644787108761</v>
+        <v>480.8687480911875</v>
       </c>
       <c r="E11" t="n">
-        <v>478.2808106167065</v>
+        <v>478.2052543607963</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792725701911463</v>
+        <v>0.7792724139772136</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220301863987358</v>
+        <v>0.1220299325145804</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098735209081621</v>
+        <v>0.03098748700685473</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117843572108038</v>
+        <v>0.0611787061205134</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00653145559822148</v>
+        <v>0.006531460380837923</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.501453349285582</v>
+        <v>6.501414973889811</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3572778716806368</v>
+        <v>0.3572757628168198</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381357843149597</v>
+        <v>2.381346546815688</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944166</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6492916677678815</v>
+        <v>0.649224600315083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6809104498883728</v>
+        <v>0.6808675069695368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9535639640635933</v>
+        <v>0.9535256032479905</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.89362734928247</v>
+        <v>51.88344262710718</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.10758693651044</v>
+        <v>34.1023052453239</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492995151052586</v>
+        <v>0.8492996589264309</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.78942619107448</v>
+        <v>12.7874870714719</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8159162628691357</v>
+        <v>0.8159231539666776</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.632930055362263</v>
+        <v>4.631256167812452</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.811916382272037</v>
+        <v>0.81192496322472</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3636841663352758</v>
+        <v>0.3623941424989274</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1925973435055685</v>
+        <v>0.1922318699482198</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07476152111294261</v>
+        <v>0.07467693713637194</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08361604905133591</v>
+        <v>0.08352185157959315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941049231714229</v>
+        <v>0.8941005943242011</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41376.69492911853</v>
+        <v>41374.48704673408</v>
       </c>
       <c r="C2" t="n">
-        <v>41794.64134254397</v>
+        <v>41792.41115831726</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90426.32241234921</v>
+        <v>90433.58310001536</v>
       </c>
       <c r="C3" t="n">
-        <v>91339.71960843354</v>
+        <v>91347.05363637915</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39186.64249036124</v>
+        <v>39186.82532727881</v>
       </c>
       <c r="C4" t="n">
-        <v>39582.46716198105</v>
+        <v>39582.65184573617</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.505807952562</v>
+        <v>513.5017369598289</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6927353056182</v>
+        <v>518.6886231917464</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32912.91656117627</v>
+        <v>32910.1767092513</v>
       </c>
       <c r="C6" t="n">
-        <v>33245.37026381442</v>
+        <v>33242.60273661747</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37494.72378087338</v>
+        <v>37496.38037949589</v>
       </c>
       <c r="C7" t="n">
-        <v>37873.45836451856</v>
+        <v>37875.13169646049</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.45791269270988</v>
+        <v>48.45383262039243</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.49573737995637</v>
+        <v>98.49948902655078</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.784139382283501</v>
+        <v>8.784467808006559</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510.1595231139279</v>
+        <v>510.1609199644463</v>
       </c>
       <c r="C3" t="n">
-        <v>7.130738276588563</v>
+        <v>7.130033078990648</v>
       </c>
       <c r="D3" t="n">
-        <v>3434.504725092143</v>
+        <v>3434.51591058433</v>
       </c>
       <c r="E3" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.3541081054938</v>
+        <v>290.3474640099058</v>
       </c>
       <c r="C4" t="n">
-        <v>7.480241243102006</v>
+        <v>7.479518169721688</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.165135580747</v>
+        <v>2766.175198302653</v>
       </c>
       <c r="E4" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.597836641023</v>
+        <v>289.5923497735055</v>
       </c>
       <c r="C5" t="n">
-        <v>7.480241243102006</v>
+        <v>7.479518169721688</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.791926875051</v>
+        <v>1287.762459634353</v>
       </c>
       <c r="E5" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.1916896184438</v>
+        <v>165.2040164246977</v>
       </c>
       <c r="C6" t="n">
-        <v>7.480241243102006</v>
+        <v>7.479518169721688</v>
       </c>
       <c r="D6" t="n">
-        <v>701.9326571326503</v>
+        <v>701.9855765547018</v>
       </c>
       <c r="E6" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.5230663582785</v>
+        <v>159.5210211725882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6107713623070284</v>
+        <v>0.6107395136741491</v>
       </c>
       <c r="D7" t="n">
-        <v>673.4017777086103</v>
+        <v>673.3928954423393</v>
       </c>
       <c r="E7" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.0657405415412</v>
+        <v>172.0634319679885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6042323876107425</v>
+        <v>0.6041710776993827</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.489793497002</v>
+        <v>2787.486616241212</v>
       </c>
       <c r="E8" t="n">
-        <v>15.34699698219291</v>
+        <v>15.34459675597927</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.5230662327687</v>
+        <v>159.5210210470818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6107713623070284</v>
+        <v>0.6107395136741491</v>
       </c>
       <c r="D9" t="n">
-        <v>2756.91537266152</v>
+        <v>2756.913112016454</v>
       </c>
       <c r="E9" t="n">
-        <v>15.34699698219291</v>
+        <v>15.34459675597927</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.5230663582785</v>
+        <v>159.5210211725882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6107713623070284</v>
+        <v>0.6107395136741491</v>
       </c>
       <c r="D10" t="n">
-        <v>697.7551898255359</v>
+        <v>697.6914945170842</v>
       </c>
       <c r="E10" t="n">
-        <v>74.15204961462959</v>
+        <v>74.13981226933362</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5230663582785</v>
+        <v>159.5210211725882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6107713623070284</v>
+        <v>0.6107395136741491</v>
       </c>
       <c r="D11" t="n">
-        <v>697.7551898255359</v>
+        <v>697.6914945170842</v>
       </c>
       <c r="E11" t="n">
-        <v>74.61953838160152</v>
+        <v>74.61122031211454</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6107713623070284</v>
+        <v>0.6107395136741491</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6764952890441</v>
+        <v>251.6764685462305</v>
       </c>
       <c r="E12" t="n">
-        <v>74.62366932899617</v>
+        <v>74.60882533859144</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.30539737960913</v>
+        <v>59.30769932264622</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>248.842538059751</v>
+        <v>248.8521678520805</v>
       </c>
       <c r="E13" t="n">
-        <v>74.15136497913697</v>
+        <v>74.14047505064417</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.9841204870624</v>
+        <v>58.98658797039093</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>247.4985523723309</v>
+        <v>247.5088743357099</v>
       </c>
       <c r="E14" t="n">
-        <v>68.10068894233322</v>
+        <v>68.09001158243544</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.65124025308739</v>
+        <v>94.6509186708098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08352812391484138</v>
+        <v>0.08352713307565966</v>
       </c>
       <c r="D15" t="n">
-        <v>396.6198508389029</v>
+        <v>396.6184962700949</v>
       </c>
       <c r="E15" t="n">
-        <v>63.66333399851047</v>
+        <v>63.66357187014947</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.57207792876505</v>
+        <v>61.57122609387511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08352833311010979</v>
+        <v>0.08352658451665644</v>
       </c>
       <c r="D16" t="n">
-        <v>257.8134318651877</v>
+        <v>257.8098648799132</v>
       </c>
       <c r="E16" t="n">
-        <v>63.66540979541628</v>
+        <v>63.66162071140765</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.0740777769682</v>
+        <v>664.0767042658414</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.65401833664482</v>
+        <v>83.65434919784796</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.87810059127237</v>
+        <v>77.87672691500359</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>326.0756071756575</v>
+        <v>326.0698555931201</v>
       </c>
       <c r="E19" t="n">
-        <v>83.65401833664482</v>
+        <v>83.65434919784796</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.9630749000137</v>
+        <v>111.9612757030592</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1530923605411022</v>
+        <v>0.1530929003787195</v>
       </c>
       <c r="D20" t="n">
-        <v>2670.458346993225</v>
+        <v>2670.466777950045</v>
       </c>
       <c r="E20" t="n">
-        <v>18.64273685380674</v>
+        <v>18.64315686565353</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.4250104436208</v>
+        <v>110.4251156824056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1454377425140471</v>
+        <v>0.1454382553597835</v>
       </c>
       <c r="D21" t="n">
-        <v>463.2138962300671</v>
+        <v>463.214341649194</v>
       </c>
       <c r="E21" t="n">
-        <v>18.64273685380674</v>
+        <v>18.64315686565353</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.73036868788154</v>
+        <v>91.73004354250531</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>384.07505369616</v>
+        <v>384.0736923124698</v>
       </c>
       <c r="E22" t="n">
-        <v>664.0740777769682</v>
+        <v>664.0767042658414</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>664.0740777769682</v>
+        <v>664.0767042658414</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.04651415376979</v>
+        <v>56.0463411105151</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.0740777769682</v>
+        <v>664.0767042658414</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.0478208900808</v>
+        <v>96.04749650253967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08792434096299093</v>
+        <v>0.0879232979743786</v>
       </c>
       <c r="D25" t="n">
-        <v>2595.14365150063</v>
+        <v>2595.158238618057</v>
       </c>
       <c r="E25" t="n">
-        <v>45.02061292186607</v>
+        <v>45.02023657697266</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>507.4478042556069</v>
+        <v>507.449665707113</v>
       </c>
       <c r="C26" t="n">
-        <v>6.555862481531149</v>
+        <v>6.555271860929629</v>
       </c>
       <c r="D26" t="n">
-        <v>3434.504725092143</v>
+        <v>3434.51591058433</v>
       </c>
       <c r="E26" t="n">
-        <v>52.75194021779271</v>
+        <v>52.74698606964625</v>
       </c>
       <c r="F26" t="n">
-        <v>6.858369254849619</v>
+        <v>6.858423102310696</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.7670539205851</v>
+        <v>194.7679067356358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4473178239788377</v>
+        <v>0.447270635706807</v>
       </c>
       <c r="D27" t="n">
-        <v>2847.422737016883</v>
+        <v>2847.427071205157</v>
       </c>
       <c r="E27" t="n">
-        <v>52.75194021779271</v>
+        <v>52.74698606964625</v>
       </c>
       <c r="F27" t="n">
-        <v>7.093189164367646</v>
+        <v>7.093245896940946</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.2578668647759</v>
+        <v>169.2543112406735</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5143472946745085</v>
+        <v>0.5142791416089366</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.489793497002</v>
+        <v>2787.486616241212</v>
       </c>
       <c r="E28" t="n">
-        <v>15.34699698219291</v>
+        <v>15.34459675597927</v>
       </c>
       <c r="F28" t="n">
-        <v>6.898969303441023</v>
+        <v>6.89902098113914</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.4443610763331</v>
+        <v>188.4446502005432</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4473178239788377</v>
+        <v>0.447270635706807</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.916054810781</v>
+        <v>2833.919350094501</v>
       </c>
       <c r="E29" t="n">
-        <v>68.09893719998563</v>
+        <v>68.09158282562552</v>
       </c>
       <c r="F29" t="n">
-        <v>7.064126589321778</v>
+        <v>7.064181122093262</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.9637948248575</v>
+        <v>111.9607611973342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1530970269412163</v>
+        <v>0.1530816076451343</v>
       </c>
       <c r="D30" t="n">
-        <v>2670.461143154974</v>
+        <v>2670.464779554035</v>
       </c>
       <c r="E30" t="n">
-        <v>68.09893719998563</v>
+        <v>68.09158282562552</v>
       </c>
       <c r="F30" t="n">
-        <v>7.154941134658141</v>
+        <v>7.154995634182284</v>
       </c>
       <c r="G30" t="n">
-        <v>98.94028486365264</v>
+        <v>98.94065777960421</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.04755147658881</v>
+        <v>96.04822945032083</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08792347472923184</v>
+        <v>0.08792565460289294</v>
       </c>
       <c r="D31" t="n">
-        <v>2595.141872431076</v>
+        <v>2595.162089451275</v>
       </c>
       <c r="E31" t="n">
-        <v>49.45621612334124</v>
+        <v>49.44824753244872</v>
       </c>
       <c r="F31" t="n">
-        <v>7.201286730426335</v>
+        <v>7.201330577642243</v>
       </c>
       <c r="G31" t="n">
-        <v>96.72886864781825</v>
+        <v>96.72971014769254</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.4338996061789</v>
+        <v>51.4427705568649</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008481735986647695</v>
+        <v>0.00846976452998713</v>
       </c>
       <c r="D32" t="n">
-        <v>2595.141872431076</v>
+        <v>2595.162089451275</v>
       </c>
       <c r="E32" t="n">
-        <v>4.435279146916947</v>
+        <v>4.42839087102778</v>
       </c>
       <c r="F32" t="n">
-        <v>8.259659886531022</v>
+        <v>8.260372347013856</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.68435549266627</v>
+        <v>47.72509677539517</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002571330948074473</v>
+        <v>0.002570898395372003</v>
       </c>
       <c r="D33" t="n">
-        <v>2589.634140302152</v>
+        <v>2589.711013130985</v>
       </c>
       <c r="E33" t="n">
-        <v>4.435279146916947</v>
+        <v>4.42839087102778</v>
       </c>
       <c r="F33" t="n">
-        <v>8.792552626574469</v>
+        <v>8.792869793337337</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.53561741475818</v>
+        <v>21.53286925093272</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002571330948074473</v>
+        <v>0.002570898395372003</v>
       </c>
       <c r="D34" t="n">
-        <v>90.33914989361874</v>
+        <v>90.32765293616649</v>
       </c>
       <c r="E34" t="n">
-        <v>4.435279146916947</v>
+        <v>4.42839087102778</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.55604981915292</v>
+        <v>23.55329950685382</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.43548618188537</v>
+        <v>99.4239893118479</v>
       </c>
       <c r="E35" t="n">
-        <v>4.435279146916947</v>
+        <v>4.42839087102778</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1536932256828</v>
+        <v>495.1548709215739</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.552702301865</v>
+        <v>3457.555298887344</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08210736323809</v>
+        <v>5.082083255487167</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>6.050676036803756</v>
+        <v>6.050463468208728</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1536932256828</v>
+        <v>510.1548709215739</v>
       </c>
       <c r="C42" t="n">
-        <v>7.130903694930276</v>
+        <v>7.129891449502838</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.486150424697</v>
+        <v>3434.502370413423</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050676036803756</v>
+        <v>6.050463468208728</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986983044025789</v>
+        <v>5.986954643859148</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381357843149597</v>
+        <v>2.381346546815688</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944166</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.677759866180377</v>
+        <v>1.681112848105967</v>
       </c>
       <c r="C2" t="n">
-        <v>1.835086599586511</v>
+        <v>1.838861598006992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9142674065400601</v>
+        <v>0.9142139081744942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2647175347148623</v>
+        <v>0.2641182526517997</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>140.0514338127685</v>
+        <v>140.0146475212107</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.5729005358094</v>
+        <v>32.56966078561836</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.247045288695288</v>
+        <v>6.246967236294729</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.85025416239876</v>
+        <v>45.84477281723579</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.96971393788899</v>
+        <v>30.96716683237799</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493085868373413</v>
+        <v>0.8493084635241017</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.13110576387796</v>
+        <v>11.12988042818323</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8237457158382939</v>
+        <v>0.8237466096830185</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.725006131173579</v>
+        <v>3.723586060060515</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148794816334264</v>
+        <v>0.8148806692964431</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0244283294582215</v>
+        <v>0.02413949661404888</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03345913885058992</v>
+        <v>0.03314877108932416</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04034479065269288</v>
+        <v>0.04028213296586552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04520652165996542</v>
+        <v>0.04513645493853326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924550965490882</v>
+        <v>0.8924522987177803</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39299.92177316609</v>
+        <v>39295.75516471201</v>
       </c>
       <c r="C2" t="n">
-        <v>39696.89067996575</v>
+        <v>39692.68198455758</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86935.37305829169</v>
+        <v>86923.91156431881</v>
       </c>
       <c r="C3" t="n">
-        <v>87813.50813968858</v>
+        <v>87801.93087304931</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34450.41597444003</v>
+        <v>34441.23697560179</v>
       </c>
       <c r="C4" t="n">
-        <v>34798.39997418185</v>
+        <v>34789.12825818362</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.2219260721871</v>
+        <v>469.1503950005334</v>
       </c>
       <c r="C5" t="n">
-        <v>473.9615414870577</v>
+        <v>473.8892878793267</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30172.07877583277</v>
+        <v>30168.51715669751</v>
       </c>
       <c r="C6" t="n">
-        <v>30476.84724831593</v>
+        <v>30473.24965322981</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33286.18640271274</v>
+        <v>33277.72554348406</v>
       </c>
       <c r="C7" t="n">
-        <v>33622.41050779064</v>
+        <v>33613.86418533744</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.73758669292673</v>
+        <v>40.73865187793216</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.21817832703806</v>
+        <v>99.2181478279725</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.748813896179405</v>
+        <v>8.74836735384422</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17241.86177060276</v>
+        <v>17241.79317726693</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1941.909345288828</v>
+        <v>1941.402124733921</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11386.37228980696</v>
+        <v>11386.30508075084</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.889610431974</v>
+        <v>3937.870930452371</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.947010382471</v>
+        <v>2844.933514942683</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.54551885086</v>
+        <v>10560.4954232935</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19285.29148495414</v>
+        <v>19284.70199342247</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8454149089265272</v>
+        <v>0.8451928499409076</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.9210558644169</v>
+        <v>461.924818343993</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.0937548646524</v>
+        <v>867.0980110067954</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9469917782857</v>
+        <v>304.9380569807957</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7786353769364</v>
+        <v>692.7688950675561</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1173814428784</v>
+        <v>235.1079818064094</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2384156068481</v>
+        <v>617.2283228421396</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1953899736811</v>
+        <v>234.1859958789654</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2485287698859</v>
+        <v>616.2384438528435</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.7536323883663</v>
+        <v>174.7491076280769</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.8021911328357</v>
+        <v>552.7973878373714</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.2986090027932</v>
+        <v>106.2909983382364</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.523488630507</v>
+        <v>480.5154919044229</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.190696746602</v>
+        <v>504.1990627090923</v>
       </c>
       <c r="C3" t="n">
-        <v>7.84265397442724</v>
+        <v>7.841601065432128</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.707947831342</v>
+        <v>3411.741800994492</v>
       </c>
       <c r="E3" t="n">
-        <v>63.05814718274899</v>
+        <v>63.06077157545126</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.7724334266832</v>
+        <v>296.7628015858022</v>
       </c>
       <c r="C4" t="n">
-        <v>8.204169033123383</v>
+        <v>8.20304393631752</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.611026478258</v>
+        <v>2755.62815819028</v>
       </c>
       <c r="E4" t="n">
-        <v>63.05814718274899</v>
+        <v>63.06077157545126</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.811397062238</v>
+        <v>295.8015913389007</v>
       </c>
       <c r="C5" t="n">
-        <v>8.204169033123383</v>
+        <v>8.20304393631752</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.616706611549</v>
+        <v>1321.562687319771</v>
       </c>
       <c r="E5" t="n">
-        <v>63.05814718274899</v>
+        <v>63.06077157545126</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.6900767470774</v>
+        <v>164.6861884424028</v>
       </c>
       <c r="C6" t="n">
-        <v>8.204169033123383</v>
+        <v>8.20304393631752</v>
       </c>
       <c r="D6" t="n">
-        <v>700.1809724318758</v>
+        <v>700.1635137283238</v>
       </c>
       <c r="E6" t="n">
-        <v>63.05814718274899</v>
+        <v>63.06077157545126</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.3129581135541</v>
+        <v>163.3092920081626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6721044513408888</v>
+        <v>0.6720428445913365</v>
       </c>
       <c r="D7" t="n">
-        <v>689.884259052617</v>
+        <v>689.868292402998</v>
       </c>
       <c r="E7" t="n">
-        <v>63.05814718274899</v>
+        <v>63.06077157545126</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.7652683588223</v>
+        <v>175.7601420895398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6650035033118883</v>
+        <v>0.6649457335647594</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.821587811014</v>
+        <v>2791.813904626467</v>
       </c>
       <c r="E8" t="n">
-        <v>16.67666620305043</v>
+        <v>16.67647094197736</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.3129579802513</v>
+        <v>163.3092918748668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6721044513408888</v>
+        <v>0.6720428445913365</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.028193088929</v>
+        <v>2761.024289124685</v>
       </c>
       <c r="E9" t="n">
-        <v>16.67666620305043</v>
+        <v>16.67647094197736</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.3129581135541</v>
+        <v>163.3092920081626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6721044513408888</v>
+        <v>0.6720428445913365</v>
       </c>
       <c r="D10" t="n">
-        <v>710.2556277202154</v>
+        <v>710.3133635094152</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73481338579941</v>
+        <v>79.73724251742863</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.3129581135541</v>
+        <v>163.3092920081626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6721044513408888</v>
+        <v>0.6720428445913365</v>
       </c>
       <c r="D11" t="n">
-        <v>710.2556277202154</v>
+        <v>710.3133635094152</v>
       </c>
       <c r="E11" t="n">
-        <v>81.77200439818584</v>
+        <v>81.76530471559398</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6721044513408888</v>
+        <v>0.6720428445913365</v>
       </c>
       <c r="D12" t="n">
-        <v>251.727995484116</v>
+        <v>251.7279437545131</v>
       </c>
       <c r="E12" t="n">
-        <v>81.76770308060718</v>
+        <v>81.7662107396107</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.20102267347369</v>
+        <v>57.20471230709967</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>240.0401703319752</v>
+        <v>240.0556020756916</v>
       </c>
       <c r="E13" t="n">
-        <v>75.48158391162123</v>
+        <v>75.47079280083848</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.20102267347369</v>
+        <v>57.20471230709967</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>240.0401703319752</v>
+        <v>240.0556020756916</v>
       </c>
       <c r="E14" t="n">
-        <v>75.48158391162123</v>
+        <v>75.47079280083848</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.69968322744921</v>
+        <v>92.70119706032199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07769219562665668</v>
+        <v>0.0776965874206836</v>
       </c>
       <c r="D15" t="n">
-        <v>388.4015625714134</v>
+        <v>388.4079359642629</v>
       </c>
       <c r="E15" t="n">
-        <v>67.2636253962941</v>
+        <v>67.26206890397293</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.25600688881718</v>
+        <v>61.25620299721379</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07769064654959779</v>
+        <v>0.07769663079293036</v>
       </c>
       <c r="D16" t="n">
-        <v>256.4855908346415</v>
+        <v>256.4864166681083</v>
       </c>
       <c r="E16" t="n">
-        <v>67.26266091375435</v>
+        <v>67.26116876116693</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.84637535655688</v>
+        <v>76.84727067541496</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>321.7557736179037</v>
+        <v>321.7595223179625</v>
       </c>
       <c r="E19" t="n">
         <v>87.61056310256292</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.7404453645234</v>
+        <v>112.7380604181977</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1570745389789883</v>
+        <v>0.1570724165686826</v>
       </c>
       <c r="D20" t="n">
-        <v>2653.450572356158</v>
+        <v>2653.470784093009</v>
       </c>
       <c r="E20" t="n">
-        <v>22.3812164524954</v>
+        <v>22.37910761842835</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.1931572139089</v>
+        <v>111.1927520939086</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1492208120300389</v>
+        <v>0.1492187957402484</v>
       </c>
       <c r="D21" t="n">
-        <v>466.4654876899765</v>
+        <v>466.4637725703184</v>
       </c>
       <c r="E21" t="n">
-        <v>22.3812164524954</v>
+        <v>22.37910761842835</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.74080512313226</v>
+        <v>89.7422062540216</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>375.7447510505548</v>
+        <v>375.7506175855884</v>
       </c>
       <c r="E22" t="n">
         <v>695.4824771444306</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.91654678327374</v>
+        <v>55.91665956740834</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.07929685071446</v>
+        <v>94.0808238007088</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08178125855437546</v>
+        <v>0.08178588149545642</v>
       </c>
       <c r="D25" t="n">
-        <v>2566.203264694304</v>
+        <v>2566.239620037387</v>
       </c>
       <c r="E25" t="n">
-        <v>44.88168427581531</v>
+        <v>44.88299880722885</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.3471641600801</v>
+        <v>501.3556056661492</v>
       </c>
       <c r="C26" t="n">
-        <v>7.250967456094138</v>
+        <v>7.249840833314598</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.707947831342</v>
+        <v>3411.741800994492</v>
       </c>
       <c r="E26" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F26" t="n">
-        <v>6.785012755988626</v>
+        <v>6.785124097370974</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.5144044366478</v>
+        <v>188.5251820573699</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4888756994763765</v>
+        <v>0.488818407655509</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.6967853603</v>
+        <v>2831.723427942043</v>
       </c>
       <c r="E27" t="n">
-        <v>58.80505263243668</v>
+        <v>58.79521551335434</v>
       </c>
       <c r="F27" t="n">
-        <v>7.019461311767052</v>
+        <v>7.019571530853451</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.8286800703237</v>
+        <v>172.8235149777649</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5680232441577361</v>
+        <v>0.5679640989275792</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.821587811014</v>
+        <v>2791.813904626467</v>
       </c>
       <c r="E28" t="n">
-        <v>16.67666620305043</v>
+        <v>16.67647094197736</v>
       </c>
       <c r="F28" t="n">
-        <v>6.864691981137362</v>
+        <v>6.864720875959808</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.460753042349</v>
+        <v>184.4674351343892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4888756994763765</v>
+        <v>0.488818407655509</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.886899078305</v>
+        <v>2822.904889001956</v>
       </c>
       <c r="E29" t="n">
-        <v>75.48171883548711</v>
+        <v>75.47168645533171</v>
       </c>
       <c r="F29" t="n">
-        <v>7.000294077380621</v>
+        <v>7.000385835320113</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.7401452315096</v>
+        <v>112.73802547866</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1570852088107938</v>
+        <v>0.1570742044997534</v>
       </c>
       <c r="D30" t="n">
-        <v>2653.449499024537</v>
+        <v>2653.47065913298</v>
       </c>
       <c r="E30" t="n">
-        <v>75.48171883548711</v>
+        <v>75.47168645533171</v>
       </c>
       <c r="F30" t="n">
-        <v>7.099357977907172</v>
+        <v>7.0994438815255</v>
       </c>
       <c r="G30" t="n">
-        <v>98.12118614004672</v>
+        <v>98.12228650380284</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.07852619980855</v>
+        <v>94.08109935120308</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08177892544081035</v>
+        <v>0.08178671576576442</v>
       </c>
       <c r="D31" t="n">
-        <v>2566.199980199286</v>
+        <v>2566.240899413984</v>
       </c>
       <c r="E31" t="n">
-        <v>53.09977771500833</v>
+        <v>53.09261635858763</v>
       </c>
       <c r="F31" t="n">
-        <v>7.154396440760685</v>
+        <v>7.154466402483444</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60138345722689</v>
+        <v>95.60298934828066</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.22484379008608</v>
+        <v>54.20167657567936</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01518594145060014</v>
+        <v>0.01516900259501148</v>
       </c>
       <c r="D32" t="n">
-        <v>2566.199980199286</v>
+        <v>2566.240899413984</v>
       </c>
       <c r="E32" t="n">
-        <v>8.218922997866883</v>
+        <v>8.209624039671553</v>
       </c>
       <c r="F32" t="n">
-        <v>7.903416004463562</v>
+        <v>7.904046751749542</v>
       </c>
       <c r="G32" t="n">
-        <v>98.62829259238603</v>
+        <v>98.63176640593485</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.97413189188774</v>
+        <v>22.97069885579913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002806673189139533</v>
+        <v>0.002806089873723889</v>
       </c>
       <c r="D33" t="n">
-        <v>2521.950366663587</v>
+        <v>2522.098300343951</v>
       </c>
       <c r="E33" t="n">
-        <v>8.218922997866883</v>
+        <v>8.209624039671553</v>
       </c>
       <c r="F33" t="n">
-        <v>8.529850352974483</v>
+        <v>8.530444890347306</v>
       </c>
       <c r="G33" t="n">
-        <v>99.14640742128887</v>
+        <v>99.15271157398843</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.97413189188774</v>
+        <v>22.97069885579913</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002806673189139533</v>
+        <v>0.002806089873723889</v>
       </c>
       <c r="D34" t="n">
-        <v>96.35659229208103</v>
+        <v>96.34223291054809</v>
       </c>
       <c r="E34" t="n">
-        <v>8.218922997866883</v>
+        <v>8.209624039671553</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.995650208222</v>
+        <v>24.99221467122135</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>105.4528596658411</v>
+        <v>105.4385005076401</v>
       </c>
       <c r="E35" t="n">
-        <v>8.218922997866883</v>
+        <v>8.209624039671553</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1536932256828</v>
+        <v>495.1548709215739</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.552702301865</v>
+        <v>3457.555298887344</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08210736323809</v>
+        <v>5.082083255487167</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1536932256828</v>
+        <v>510.1548709215739</v>
       </c>
       <c r="C42" t="n">
-        <v>7.130903694930276</v>
+        <v>7.129891449502838</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.486150424697</v>
+        <v>3434.502370413423</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050676036803756</v>
+        <v>6.050463468208728</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.649224600315083</v>
+        <v>0.6887880272176017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6808675069695368</v>
+        <v>0.7101449081404861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9535256032479905</v>
+        <v>0.9699260240014852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.8006843630923672</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.88344262710718</v>
+        <v>56.57547141626711</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.1023052453239</v>
+        <v>36.47425510088021</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492996589264309</v>
+        <v>0.8491812056626644</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.7874870714719</v>
+        <v>13.73741984822004</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8159231539666776</v>
+        <v>0.8108293747119159</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.631256167812452</v>
+        <v>5.276114313121239</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.81192496322472</v>
+        <v>0.807062365569071</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3623941424989274</v>
+        <v>1.087682154045618</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1922318699482198</v>
+        <v>0.3342710234518749</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07467693713637194</v>
+        <v>0.1100338549872361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08352185157959315</v>
+        <v>0.1228014679853555</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941005943242011</v>
+        <v>0.8960304529939171</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41374.48704673408</v>
+        <v>41234.17612633801</v>
       </c>
       <c r="C2" t="n">
-        <v>41792.41115831726</v>
+        <v>41650.68295589698</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90433.58310001536</v>
+        <v>88658.67912933139</v>
       </c>
       <c r="C3" t="n">
-        <v>91347.05363637915</v>
+        <v>89554.22134275897</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39186.82532727881</v>
+        <v>39817.12481831897</v>
       </c>
       <c r="C4" t="n">
-        <v>39582.65184573617</v>
+        <v>40219.31799830199</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.5017369598289</v>
+        <v>514.4991302940335</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6886231917464</v>
+        <v>519.6960912060945</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32910.1767092513</v>
+        <v>33407.97222088523</v>
       </c>
       <c r="C6" t="n">
-        <v>33242.60273661747</v>
+        <v>33745.42648574265</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37496.38037949589</v>
+        <v>37983.67844687231</v>
       </c>
       <c r="C7" t="n">
-        <v>37875.13169646049</v>
+        <v>38367.35196653768</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.45383262039243</v>
+        <v>52.61019105757187</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.49948902655078</v>
+        <v>94.66117688401023</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.784467808006559</v>
+        <v>8.466421513367678</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.924818343993</v>
+        <v>462.1639171104177</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.0980110067954</v>
+        <v>867.3684888300861</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9380569807957</v>
+        <v>308.3233981127401</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7688950675561</v>
+        <v>696.4608611198842</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1079818064094</v>
+        <v>237.4142701013432</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2283228421396</v>
+        <v>619.7052584900165</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1859958789654</v>
+        <v>236.4909289019566</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2384438528435</v>
+        <v>618.7134568223056</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.7491076280769</v>
+        <v>176.1764672497524</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.7973878373714</v>
+        <v>554.3127987598186</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.2909983382364</v>
+        <v>106.839214448808</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.5154919044229</v>
+        <v>481.0915367377185</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.1990627090923</v>
+        <v>503.4378307139774</v>
       </c>
       <c r="C3" t="n">
-        <v>7.841601065432128</v>
+        <v>8.2888179831992</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.741800994492</v>
+        <v>3404.575014481389</v>
       </c>
       <c r="E3" t="n">
-        <v>63.06077157545126</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.7628015858022</v>
+        <v>300.3293219837914</v>
       </c>
       <c r="C4" t="n">
-        <v>8.20304393631752</v>
+        <v>8.627820083521385</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.62815819028</v>
+        <v>2749.002862940849</v>
       </c>
       <c r="E4" t="n">
-        <v>63.06077157545126</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.8015913389007</v>
+        <v>299.0351944237174</v>
       </c>
       <c r="C5" t="n">
-        <v>8.20304393631752</v>
+        <v>8.627820083521385</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.562687319771</v>
+        <v>1339.429030207327</v>
       </c>
       <c r="E5" t="n">
-        <v>63.06077157545126</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.6861884424028</v>
+        <v>166.0719812496457</v>
       </c>
       <c r="C6" t="n">
-        <v>8.20304393631752</v>
+        <v>8.627820083521385</v>
       </c>
       <c r="D6" t="n">
-        <v>700.1635137283238</v>
+        <v>706.4005314243354</v>
       </c>
       <c r="E6" t="n">
-        <v>63.06077157545126</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.3092920081626</v>
+        <v>164.5901258340922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6720428445913365</v>
+        <v>0.6938413481045751</v>
       </c>
       <c r="D7" t="n">
-        <v>689.868292402998</v>
+        <v>695.4493028146339</v>
       </c>
       <c r="E7" t="n">
-        <v>63.06077157545126</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.7601420895398</v>
+        <v>176.9633820268721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6649457335647594</v>
+        <v>0.6868974058800495</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.813904626467</v>
+        <v>2793.110692583205</v>
       </c>
       <c r="E8" t="n">
-        <v>16.67647094197736</v>
+        <v>16.73831779409157</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.3092918748668</v>
+        <v>164.5901256981017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6720428445913365</v>
+        <v>0.6938413481045751</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.024289124685</v>
+        <v>2762.379316294003</v>
       </c>
       <c r="E9" t="n">
-        <v>16.67647094197736</v>
+        <v>16.73831779409157</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.3092920081626</v>
+        <v>164.5901258340922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6720428445913365</v>
+        <v>0.6938413481045751</v>
       </c>
       <c r="D10" t="n">
-        <v>710.3133635094152</v>
+        <v>710.3685569713778</v>
       </c>
       <c r="E10" t="n">
-        <v>79.73724251742863</v>
+        <v>79.63427693856751</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.3092920081626</v>
+        <v>164.5901258340922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6720428445913365</v>
+        <v>0.6938413481045751</v>
       </c>
       <c r="D11" t="n">
-        <v>710.3133635094152</v>
+        <v>710.3685569713778</v>
       </c>
       <c r="E11" t="n">
-        <v>81.76530471559398</v>
+        <v>82.8212472326302</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6720428445913365</v>
+        <v>0.6938413481045751</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7279437545131</v>
+        <v>251.7462473469836</v>
       </c>
       <c r="E12" t="n">
-        <v>81.7662107396107</v>
+        <v>82.81912519929693</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.20471230709967</v>
+        <v>55.61437382973469</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>240.0556020756916</v>
+        <v>233.404569682289</v>
       </c>
       <c r="E13" t="n">
-        <v>75.47079280083848</v>
+        <v>79.63267716554468</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.20471230709967</v>
+        <v>55.61437382973469</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>240.0556020756916</v>
+        <v>233.404569682289</v>
       </c>
       <c r="E14" t="n">
-        <v>75.47079280083848</v>
+        <v>79.63267716554468</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.70119706032199</v>
+        <v>91.15856340601295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0776965874206836</v>
+        <v>0.07332707968639099</v>
       </c>
       <c r="D15" t="n">
-        <v>388.4079359642629</v>
+        <v>381.9145275813405</v>
       </c>
       <c r="E15" t="n">
-        <v>67.26206890397293</v>
+        <v>67.53764903293651</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.25620299721379</v>
+        <v>60.97041348936199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07769663079293036</v>
+        <v>0.07332713645432462</v>
       </c>
       <c r="D16" t="n">
-        <v>256.4864166681083</v>
+        <v>255.2865843367107</v>
       </c>
       <c r="E16" t="n">
-        <v>67.26116876116693</v>
+        <v>67.53592348873357</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.84727067541496</v>
+        <v>75.98024709794927</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>321.7595223179625</v>
+        <v>318.1292945991136</v>
       </c>
       <c r="E19" t="n">
         <v>87.61056310256292</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.7380604181977</v>
+        <v>113.1546908082009</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1570724165686826</v>
+        <v>0.1592467577579656</v>
       </c>
       <c r="D20" t="n">
-        <v>2653.470784093009</v>
+        <v>2645.531432440915</v>
       </c>
       <c r="E20" t="n">
-        <v>22.37910761842835</v>
+        <v>24.40688494819685</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.1927520939086</v>
+        <v>111.6054467228766</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1492187957402484</v>
+        <v>0.1512844198700673</v>
       </c>
       <c r="D21" t="n">
-        <v>466.4637725703184</v>
+        <v>468.2110885439964</v>
       </c>
       <c r="E21" t="n">
-        <v>22.37910761842835</v>
+        <v>24.40688494819685</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.7422062540216</v>
+        <v>88.31487807442855</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>375.7506175855884</v>
+        <v>369.7743944976324</v>
       </c>
       <c r="E22" t="n">
         <v>695.4824771444306</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.91665956740834</v>
+        <v>55.8074398151626</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.0808238007088</v>
+        <v>92.52485919027248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08178588149545642</v>
+        <v>0.07718639966988526</v>
       </c>
       <c r="D25" t="n">
-        <v>2566.239620037387</v>
+        <v>2549.992411614551</v>
       </c>
       <c r="E25" t="n">
-        <v>44.88299880722885</v>
+        <v>43.13089153894753</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.3556056661492</v>
+        <v>500.77508877531</v>
       </c>
       <c r="C26" t="n">
-        <v>7.249840833314598</v>
+        <v>7.734749722286387</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.741800994492</v>
+        <v>3404.575014481389</v>
       </c>
       <c r="E26" t="n">
-        <v>58.79521551335434</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F26" t="n">
-        <v>6.785124097370974</v>
+        <v>6.747749436920161</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.5251820573699</v>
+        <v>185.9150078640805</v>
       </c>
       <c r="C27" t="n">
-        <v>0.488818407655509</v>
+        <v>0.512431652450119</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.723427942043</v>
+        <v>2824.660889678927</v>
       </c>
       <c r="E27" t="n">
-        <v>58.79521551335434</v>
+        <v>62.89595914447594</v>
       </c>
       <c r="F27" t="n">
-        <v>7.019571530853451</v>
+        <v>6.983117812945482</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.8235149777649</v>
+        <v>174.1251549894739</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5679640989275792</v>
+        <v>0.5921654763778229</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.813904626467</v>
+        <v>2793.110692583205</v>
       </c>
       <c r="E28" t="n">
-        <v>16.67647094197736</v>
+        <v>16.73831779409157</v>
       </c>
       <c r="F28" t="n">
-        <v>6.864720875959808</v>
+        <v>6.849154112275708</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.4674351343892</v>
+        <v>182.8933445362014</v>
       </c>
       <c r="C29" t="n">
-        <v>0.488818407655509</v>
+        <v>0.512431652450119</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.904889001956</v>
+        <v>2818.029358060177</v>
       </c>
       <c r="E29" t="n">
-        <v>75.47168645533171</v>
+        <v>79.63427693856751</v>
       </c>
       <c r="F29" t="n">
-        <v>7.000385835320113</v>
+        <v>6.968624286039132</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.73802547866</v>
+        <v>113.1521962094346</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1570742044997534</v>
+        <v>0.1592363472537815</v>
       </c>
       <c r="D30" t="n">
-        <v>2653.47065913298</v>
+        <v>2645.522990496652</v>
       </c>
       <c r="E30" t="n">
-        <v>75.47168645533171</v>
+        <v>79.63427693856751</v>
       </c>
       <c r="F30" t="n">
-        <v>7.0994438815255</v>
+        <v>7.072808562179689</v>
       </c>
       <c r="G30" t="n">
-        <v>98.12228650380284</v>
+        <v>97.73551837598788</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.08109935120308</v>
+        <v>92.52363036248107</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08178671576576442</v>
+        <v>0.0771828541838947</v>
       </c>
       <c r="D31" t="n">
-        <v>2566.240899413984</v>
+        <v>2549.988837121977</v>
       </c>
       <c r="E31" t="n">
-        <v>53.09261635858763</v>
+        <v>55.22751944457853</v>
       </c>
       <c r="F31" t="n">
-        <v>7.154466402483444</v>
+        <v>7.135264663258473</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60298934828066</v>
+        <v>95.00710164997886</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.20167657567936</v>
+        <v>62.41703363021094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01516900259501148</v>
+        <v>0.02228667694507355</v>
       </c>
       <c r="D32" t="n">
-        <v>2566.240899413984</v>
+        <v>2549.988837121977</v>
       </c>
       <c r="E32" t="n">
-        <v>8.209624039671553</v>
+        <v>12.0967536768111</v>
       </c>
       <c r="F32" t="n">
-        <v>7.904046751749542</v>
+        <v>7.681914535691854</v>
       </c>
       <c r="G32" t="n">
-        <v>98.63176640593485</v>
+        <v>97.31915646139431</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.97069885579913</v>
+        <v>24.35731943970114</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002806089873723889</v>
+        <v>0.003050490079627622</v>
       </c>
       <c r="D33" t="n">
-        <v>2522.098300343951</v>
+        <v>2460.073626553487</v>
       </c>
       <c r="E33" t="n">
-        <v>8.209624039671553</v>
+        <v>12.0967536768111</v>
       </c>
       <c r="F33" t="n">
-        <v>8.530444890347306</v>
+        <v>8.283828252106581</v>
       </c>
       <c r="G33" t="n">
-        <v>99.15271157398843</v>
+        <v>96.51001037842975</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.97069885579913</v>
+        <v>24.35731943970114</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002806089873723889</v>
+        <v>0.003050490079627622</v>
       </c>
       <c r="D34" t="n">
-        <v>96.34223291054809</v>
+        <v>102.1415907963542</v>
       </c>
       <c r="E34" t="n">
-        <v>8.209624039671553</v>
+        <v>12.0967536768111</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.99221467122135</v>
+        <v>26.3798101014026</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>105.4385005076401</v>
+        <v>111.2377382361558</v>
       </c>
       <c r="E35" t="n">
-        <v>8.209624039671553</v>
+        <v>12.0967536768111</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>471.3465636240896</v>
+        <v>471.4468029418231</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.858690736706626</v>
+        <v>6.858730247980031</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.1447514885232</v>
+        <v>536.1438798577916</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>955.2356484412352</v>
+        <v>955.2339398228272</v>
       </c>
       <c r="E5" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.4928743187823</v>
+        <v>463.4903683447292</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>872.2322066709985</v>
+        <v>872.2286825343759</v>
       </c>
       <c r="E6" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.2349423551053</v>
+        <v>298.2508019622616</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.6250001997695</v>
+        <v>688.6416378467663</v>
       </c>
       <c r="E7" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.9763098433183</v>
+        <v>230.9849912991037</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.875635902873</v>
+        <v>615.8843309287757</v>
       </c>
       <c r="E8" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.0534783180613</v>
+        <v>230.0622113030373</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.8846612459492</v>
+        <v>614.8934100643728</v>
       </c>
       <c r="E9" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.3638899131303</v>
+        <v>170.4032134860006</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.1604562621237</v>
+        <v>551.2015955869232</v>
       </c>
       <c r="E10" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.8202629378247</v>
+        <v>103.8475302085385</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.8687480911875</v>
+        <v>480.8968151269405</v>
       </c>
       <c r="E11" t="n">
-        <v>478.2052543607963</v>
+        <v>478.3055331898031</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792724139772136</v>
+        <v>0.7792726234240548</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220299325145804</v>
+        <v>0.1220302729146555</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098748700685473</v>
+        <v>0.03098730611557553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0611787061205134</v>
+        <v>0.06117834357726153</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531460380837923</v>
+        <v>0.006531453968452739</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.501414973889811</v>
+        <v>6.50145242698318</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3572757628168198</v>
+        <v>0.3572778209968555</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381346546815688</v>
+        <v>2.38135175384986</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944172</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6887880272176017</v>
+        <v>0.6882632770809444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7101449081404861</v>
+        <v>0.7095846301919704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9699260240014852</v>
+        <v>0.9699523464801405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8006843630923672</v>
+        <v>0.8013777828018732</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.57547141626711</v>
+        <v>56.57640547909371</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.47425510088021</v>
+        <v>36.47621838300967</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491812056626644</v>
+        <v>0.8491806521982919</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.73741984822004</v>
+        <v>13.73696645660442</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8108293747119159</v>
+        <v>0.8108318353253172</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.276114313121239</v>
+        <v>5.275875598630249</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.807062365569071</v>
+        <v>0.8070646746510238</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.087682154045618</v>
+        <v>1.087345040849373</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3342710234518749</v>
+        <v>0.3342227442529163</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1100338549872361</v>
+        <v>0.1100208988238072</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1228014679853555</v>
+        <v>0.1227871112588946</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8960304529939171</v>
+        <v>0.8960297029207731</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41234.17612633801</v>
+        <v>41235.88887676998</v>
       </c>
       <c r="C2" t="n">
-        <v>41650.68295589698</v>
+        <v>41652.41300683837</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88658.67912933139</v>
+        <v>88655.19248582922</v>
       </c>
       <c r="C3" t="n">
-        <v>89554.22134275897</v>
+        <v>89550.69948063558</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39817.12481831897</v>
+        <v>39826.25547139076</v>
       </c>
       <c r="C4" t="n">
-        <v>40219.31799830199</v>
+        <v>40228.54088019269</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>514.4991302940335</v>
+        <v>514.48501155986</v>
       </c>
       <c r="C5" t="n">
-        <v>519.6960912060945</v>
+        <v>519.6818298584445</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33407.97222088523</v>
+        <v>33402.32710863702</v>
       </c>
       <c r="C6" t="n">
-        <v>33745.42648574265</v>
+        <v>33739.7243521586</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37983.67844687231</v>
+        <v>37981.61035412658</v>
       </c>
       <c r="C7" t="n">
-        <v>38367.35196653768</v>
+        <v>38365.26298396625</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.61019105757187</v>
+        <v>52.60875224656431</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.66117688401023</v>
+        <v>94.66247129720294</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.466421513367678</v>
+        <v>8.466565911182524</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510.1609199644463</v>
+        <v>510.1480949881991</v>
       </c>
       <c r="C3" t="n">
-        <v>7.130033078990648</v>
+        <v>7.131497129668836</v>
       </c>
       <c r="D3" t="n">
-        <v>3434.51591058433</v>
+        <v>3434.4672783474</v>
       </c>
       <c r="E3" t="n">
-        <v>58.79521551335434</v>
+        <v>58.80479988141305</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.3474640099058</v>
+        <v>290.3626248100267</v>
       </c>
       <c r="C4" t="n">
-        <v>7.479518169721688</v>
+        <v>7.481168189770163</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.175198302653</v>
+        <v>2766.152234207555</v>
       </c>
       <c r="E4" t="n">
-        <v>58.79521551335434</v>
+        <v>58.80479988141305</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.5923497735055</v>
+        <v>289.6260597908569</v>
       </c>
       <c r="C5" t="n">
-        <v>7.479518169721688</v>
+        <v>7.481168189770163</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.762459634353</v>
+        <v>1287.945850038704</v>
       </c>
       <c r="E5" t="n">
-        <v>58.79521551335434</v>
+        <v>58.80479988141305</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2040164246977</v>
+        <v>165.234305715226</v>
       </c>
       <c r="C6" t="n">
-        <v>7.479518169721688</v>
+        <v>7.481168189770163</v>
       </c>
       <c r="D6" t="n">
-        <v>701.9855765547018</v>
+        <v>702.1175832147715</v>
       </c>
       <c r="E6" t="n">
-        <v>58.79521551335434</v>
+        <v>58.80479988141305</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.5210211725882</v>
+        <v>159.564705460491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6107395136741491</v>
+        <v>0.6114200745481911</v>
       </c>
       <c r="D7" t="n">
-        <v>673.3928954423393</v>
+        <v>673.5826196897733</v>
       </c>
       <c r="E7" t="n">
-        <v>58.79521551335434</v>
+        <v>58.80479988141305</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.0634319679885</v>
+        <v>172.1119813023604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6041710776993827</v>
+        <v>0.6044279651170403</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.486616241212</v>
+        <v>2787.549875803046</v>
       </c>
       <c r="E8" t="n">
-        <v>15.34459675597927</v>
+        <v>15.33894008701797</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.5210210470818</v>
+        <v>159.5647053348969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6107395136741491</v>
+        <v>0.6114200745481911</v>
       </c>
       <c r="D9" t="n">
-        <v>2756.913112016454</v>
+        <v>2756.961388864607</v>
       </c>
       <c r="E9" t="n">
-        <v>15.34459675597927</v>
+        <v>15.33894008701797</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.5210211725882</v>
+        <v>159.564705460491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6107395136741491</v>
+        <v>0.6114200745481911</v>
       </c>
       <c r="D10" t="n">
-        <v>697.6914945170842</v>
+        <v>697.786298380643</v>
       </c>
       <c r="E10" t="n">
-        <v>74.13981226933362</v>
+        <v>74.14373996843102</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5210211725882</v>
+        <v>159.564705460491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6107395136741491</v>
+        <v>0.6114200745481911</v>
       </c>
       <c r="D11" t="n">
-        <v>697.6914945170842</v>
+        <v>697.786298380643</v>
       </c>
       <c r="E11" t="n">
-        <v>74.61122031211454</v>
+        <v>74.62497921282377</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6107395136741491</v>
+        <v>0.6114200745481911</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6764685462305</v>
+        <v>251.6770400040522</v>
       </c>
       <c r="E12" t="n">
-        <v>74.60882533859144</v>
+        <v>74.61537434645389</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.30769932264622</v>
+        <v>59.30562573126366</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>248.8521678520805</v>
+        <v>248.8434933304799</v>
       </c>
       <c r="E13" t="n">
-        <v>74.14047505064417</v>
+        <v>74.14918784680572</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.98658797039093</v>
+        <v>58.9843518955546</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>247.5088743357099</v>
+        <v>247.499520398993</v>
       </c>
       <c r="E14" t="n">
-        <v>68.09001158243544</v>
+        <v>68.09839126469799</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.6509186708098</v>
+        <v>94.65048141559458</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08352713307565966</v>
+        <v>0.08352578584792762</v>
       </c>
       <c r="D15" t="n">
-        <v>396.6184962700949</v>
+        <v>396.616654463886</v>
       </c>
       <c r="E15" t="n">
-        <v>63.66357187014947</v>
+        <v>63.6635386024126</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.57122609387511</v>
+        <v>61.57173002065309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08352658451665644</v>
+        <v>0.0835257584562769</v>
       </c>
       <c r="D16" t="n">
-        <v>257.8098648799132</v>
+        <v>257.811973473927</v>
       </c>
       <c r="E16" t="n">
-        <v>63.66162071140765</v>
+        <v>63.66432206134755</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.0767042658414</v>
+        <v>664.0725936626002</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.65434919784796</v>
+        <v>83.65383138140186</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.87672691500359</v>
+        <v>77.8773587137059</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>326.0698555931201</v>
+        <v>326.0725009342866</v>
       </c>
       <c r="E19" t="n">
-        <v>83.65434919784796</v>
+        <v>83.65383138140186</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.9612757030592</v>
+        <v>111.962700224136</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1530929003787195</v>
+        <v>0.1530933067067153</v>
       </c>
       <c r="D20" t="n">
-        <v>2670.466777950045</v>
+        <v>2670.447995425088</v>
       </c>
       <c r="E20" t="n">
-        <v>18.64315686565353</v>
+        <v>18.64368008425604</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.4251156824056</v>
+        <v>110.4251948975549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1454382553597835</v>
+        <v>0.1454386413713796</v>
       </c>
       <c r="D21" t="n">
-        <v>463.214341649194</v>
+        <v>463.2146769242776</v>
       </c>
       <c r="E21" t="n">
-        <v>18.64315686565353</v>
+        <v>18.64368008425604</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.73004354250531</v>
+        <v>91.72966855752745</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>384.0736923124698</v>
+        <v>384.0721222503674</v>
       </c>
       <c r="E22" t="n">
-        <v>664.0767042658414</v>
+        <v>664.0725936626002</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>664.0767042658414</v>
+        <v>664.0725936626002</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.0463411105151</v>
+        <v>56.0464206987749</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.0767042658414</v>
+        <v>664.0725936626002</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.04749650253967</v>
+        <v>96.04705543301537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0879232979743786</v>
+        <v>0.08792187983992382</v>
       </c>
       <c r="D25" t="n">
-        <v>2595.158238618057</v>
+        <v>2595.131656514039</v>
       </c>
       <c r="E25" t="n">
-        <v>45.02023657697266</v>
+        <v>45.01985261241495</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>507.449665707113</v>
+        <v>507.4357271870955</v>
       </c>
       <c r="C26" t="n">
-        <v>6.555271860929629</v>
+        <v>6.556608189548434</v>
       </c>
       <c r="D26" t="n">
-        <v>3434.51591058433</v>
+        <v>3434.4672783474</v>
       </c>
       <c r="E26" t="n">
-        <v>52.74698606964625</v>
+        <v>52.75863595273047</v>
       </c>
       <c r="F26" t="n">
-        <v>6.858423102310696</v>
+        <v>6.858271393160614</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.7679067356358</v>
+        <v>194.7456473336279</v>
       </c>
       <c r="C27" t="n">
-        <v>0.447270635706807</v>
+        <v>0.4473043485866647</v>
       </c>
       <c r="D27" t="n">
-        <v>2847.427071205157</v>
+        <v>2847.377882241062</v>
       </c>
       <c r="E27" t="n">
-        <v>52.74698606964625</v>
+        <v>52.75863595273047</v>
       </c>
       <c r="F27" t="n">
-        <v>7.093245896940946</v>
+        <v>7.09310685688826</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.2543112406735</v>
+        <v>169.281738538098</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5142791416089366</v>
+        <v>0.5142634592423125</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.486616241212</v>
+        <v>2787.549875803046</v>
       </c>
       <c r="E28" t="n">
-        <v>15.34459675597927</v>
+        <v>15.33894008701797</v>
       </c>
       <c r="F28" t="n">
-        <v>6.89902098113914</v>
+        <v>6.899177512170125</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.4446502005432</v>
+        <v>188.4372894654463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.447270635706807</v>
+        <v>0.4473043485866647</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.919350094501</v>
+        <v>2833.901657980997</v>
       </c>
       <c r="E29" t="n">
-        <v>68.09158282562552</v>
+        <v>68.09757603974845</v>
       </c>
       <c r="F29" t="n">
-        <v>7.064181122093262</v>
+        <v>7.064108933291624</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.9607611973342</v>
+        <v>111.9624393562764</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1530816076451343</v>
+        <v>0.1530901372194665</v>
       </c>
       <c r="D30" t="n">
-        <v>2670.464779554035</v>
+        <v>2670.44698222847</v>
       </c>
       <c r="E30" t="n">
-        <v>68.09158282562552</v>
+        <v>68.09757603974845</v>
       </c>
       <c r="F30" t="n">
-        <v>7.154995634182284</v>
+        <v>7.154924495789827</v>
       </c>
       <c r="G30" t="n">
-        <v>98.94065777960421</v>
+        <v>98.93974179640045</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.04822945032083</v>
+        <v>96.04666664547727</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08792565460289294</v>
+        <v>0.08792062981920087</v>
       </c>
       <c r="D31" t="n">
-        <v>2595.162089451275</v>
+        <v>2595.129979662459</v>
       </c>
       <c r="E31" t="n">
-        <v>49.44824753244872</v>
+        <v>49.4538900497508</v>
       </c>
       <c r="F31" t="n">
-        <v>7.201330577642243</v>
+        <v>7.201268759376063</v>
       </c>
       <c r="G31" t="n">
-        <v>96.72971014769254</v>
+        <v>96.728409747288</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.4427705568649</v>
+        <v>51.42738072173836</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00846976452998713</v>
+        <v>0.008479535418453716</v>
       </c>
       <c r="D32" t="n">
-        <v>2595.162089451275</v>
+        <v>2595.129979662459</v>
       </c>
       <c r="E32" t="n">
-        <v>4.42839087102778</v>
+        <v>4.43406920335044</v>
       </c>
       <c r="F32" t="n">
-        <v>8.260372347013856</v>
+        <v>8.25974269090637</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.72509677539517</v>
+        <v>47.68336812712982</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002570898395372003</v>
+        <v>0.002571253223646666</v>
       </c>
       <c r="D33" t="n">
-        <v>2589.711013130985</v>
+        <v>2589.632301738597</v>
       </c>
       <c r="E33" t="n">
-        <v>4.42839087102778</v>
+        <v>4.43406920335044</v>
       </c>
       <c r="F33" t="n">
-        <v>8.792869793337337</v>
+        <v>8.792560835046974</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.53286925093272</v>
+        <v>21.53512363313752</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002570898395372003</v>
+        <v>0.002571253223646666</v>
       </c>
       <c r="D34" t="n">
-        <v>90.32765293616649</v>
+        <v>90.33708415612074</v>
       </c>
       <c r="E34" t="n">
-        <v>4.42839087102778</v>
+        <v>4.43406920335044</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.55329950685382</v>
+        <v>23.55555565121182</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.4239893118479</v>
+        <v>99.43342045877554</v>
       </c>
       <c r="E35" t="n">
-        <v>4.42839087102778</v>
+        <v>4.43406920335044</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1548709215739</v>
+        <v>495.1512389231723</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.555298887344</v>
+        <v>3457.547291053612</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082083255487167</v>
+        <v>5.082094367931601</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>6.050463468208728</v>
+        <v>6.050796582107718</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1548709215739</v>
+        <v>510.1512389231723</v>
       </c>
       <c r="C42" t="n">
-        <v>7.129891449502838</v>
+        <v>7.131697920328617</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.502370413423</v>
+        <v>3434.473534590697</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050463468208728</v>
+        <v>6.050796582107718</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986954643859148</v>
+        <v>5.986967734888449</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381346546815688</v>
+        <v>2.38135175384986</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944172</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.681112848105967</v>
+        <v>1.677992819710937</v>
       </c>
       <c r="C2" t="n">
-        <v>1.838861598006992</v>
+        <v>1.835317602038843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9142139081744942</v>
+        <v>0.9142792603562809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2641182526517997</v>
+        <v>0.2647021073479479</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>140.0146475212107</v>
+        <v>140.0634774899324</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.56966078561836</v>
+        <v>32.5739610587989</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.246967236294729</v>
+        <v>6.247070842723009</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.84477281723579</v>
+        <v>45.85399878014124</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.96716683237799</v>
+        <v>30.97403572088266</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493084635241017</v>
+        <v>0.8493078141405412</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.12988042818323</v>
+        <v>11.13086721111015</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8237466096830185</v>
+        <v>0.82374439114201</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.723586060060515</v>
+        <v>3.724718763776288</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148806692964431</v>
+        <v>0.8148796365881842</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02413949661404888</v>
+        <v>0.02437708437213734</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03314877108932416</v>
+        <v>0.03340462957765152</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04028213296586552</v>
+        <v>0.04033378466292027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04513645493853326</v>
+        <v>0.0451942142498248</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924522987177803</v>
+        <v>0.8924546058033664</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39295.75516471201</v>
+        <v>39304.85510646038</v>
       </c>
       <c r="C2" t="n">
-        <v>39692.68198455758</v>
+        <v>39701.87384490947</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86923.91156431881</v>
+        <v>86932.59230308684</v>
       </c>
       <c r="C3" t="n">
-        <v>87801.93087304931</v>
+        <v>87810.69929604731</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34441.23697560179</v>
+        <v>34452.22025407501</v>
       </c>
       <c r="C4" t="n">
-        <v>34789.12825818362</v>
+        <v>34800.22247886364</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.1503950005334</v>
+        <v>469.2233030731762</v>
       </c>
       <c r="C5" t="n">
-        <v>473.8892878793267</v>
+        <v>473.9629323971477</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30168.51715669751</v>
+        <v>30159.50581062793</v>
       </c>
       <c r="C6" t="n">
-        <v>30473.24965322981</v>
+        <v>30464.14728346256</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33277.72554348406</v>
+        <v>33290.89384866703</v>
       </c>
       <c r="C7" t="n">
-        <v>33613.86418533744</v>
+        <v>33627.16550370407</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.73865187793216</v>
+        <v>40.73944234282553</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.2181478279725</v>
+        <v>99.21626974421611</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.74836735384422</v>
+        <v>8.748534494789936</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17241.79317726693</v>
+        <v>17241.79018147351</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1941.402124733921</v>
+        <v>1942.286789505918</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11386.30508075084</v>
+        <v>11386.37067452527</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.870930452371</v>
+        <v>3937.879540970873</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.933514942683</v>
+        <v>2844.93973565258</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.4954232935</v>
+        <v>10560.51851479213</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19284.70199342247</v>
+        <v>19285.6245809215</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8451928499409076</v>
+        <v>0.8454876101046265</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.1639171104177</v>
+        <v>462.1609985550714</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.3684888300861</v>
+        <v>867.3651871554383</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.3233981127401</v>
+        <v>308.3265324402756</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>696.4608611198842</v>
+        <v>696.464280659397</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.4142701013432</v>
+        <v>237.4010685909792</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.7052584900165</v>
+        <v>619.6910768395356</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.4909289019566</v>
+        <v>236.477750232499</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.7134568223056</v>
+        <v>618.6993023885551</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.1764672497524</v>
+        <v>176.1733854318831</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>554.3127987598186</v>
+        <v>554.3095264275383</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.839214448808</v>
+        <v>106.839894252483</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0915367377185</v>
+        <v>481.0922510746344</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.4378307139774</v>
+        <v>503.4322932651725</v>
       </c>
       <c r="C3" t="n">
-        <v>8.2888179831992</v>
+        <v>8.28919274360393</v>
       </c>
       <c r="D3" t="n">
-        <v>3404.575014481389</v>
+        <v>3404.556536656368</v>
       </c>
       <c r="E3" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300.3293219837914</v>
+        <v>300.3327776625758</v>
       </c>
       <c r="C4" t="n">
-        <v>8.627820083521385</v>
+        <v>8.62823967983835</v>
       </c>
       <c r="D4" t="n">
-        <v>2749.002862940849</v>
+        <v>2748.996163649177</v>
       </c>
       <c r="E4" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.0351944237174</v>
+        <v>299.0569948622424</v>
       </c>
       <c r="C5" t="n">
-        <v>8.627820083521385</v>
+        <v>8.62823967983835</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.429030207327</v>
+        <v>1339.553131145632</v>
       </c>
       <c r="E5" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.0719812496457</v>
+        <v>166.0686394348978</v>
       </c>
       <c r="C6" t="n">
-        <v>8.627820083521385</v>
+        <v>8.62823967983835</v>
       </c>
       <c r="D6" t="n">
-        <v>706.4005314243354</v>
+        <v>706.3863177540761</v>
       </c>
       <c r="E6" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.5901258340922</v>
+        <v>164.5889033122443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6938413481045751</v>
+        <v>0.6938202775989111</v>
       </c>
       <c r="D7" t="n">
-        <v>695.4493028146339</v>
+        <v>695.443973279379</v>
       </c>
       <c r="E7" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.9633820268721</v>
+        <v>176.9686318112483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6868974058800495</v>
+        <v>0.6868403312965753</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.110692583205</v>
+        <v>2793.124323397887</v>
       </c>
       <c r="E8" t="n">
-        <v>16.73831779409157</v>
+        <v>16.73398667156085</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.5901256981017</v>
+        <v>164.5889031762574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6938413481045751</v>
+        <v>0.6938202775989111</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.379316294003</v>
+        <v>2762.378031505468</v>
       </c>
       <c r="E9" t="n">
-        <v>16.73831779409157</v>
+        <v>16.73398667156085</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5901258340922</v>
+        <v>164.5889033122443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6938413481045751</v>
+        <v>0.6938202775989111</v>
       </c>
       <c r="D10" t="n">
-        <v>710.3685569713778</v>
+        <v>710.3489845585023</v>
       </c>
       <c r="E10" t="n">
-        <v>79.63427693856751</v>
+        <v>79.63305539238837</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.5901258340922</v>
+        <v>164.5889033122443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6938413481045751</v>
+        <v>0.6938202775989111</v>
       </c>
       <c r="D11" t="n">
-        <v>710.3685569713778</v>
+        <v>710.3489845585023</v>
       </c>
       <c r="E11" t="n">
-        <v>82.8212472326302</v>
+        <v>82.82028537918417</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6938413481045751</v>
+        <v>0.6938202775989111</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7462473469836</v>
+        <v>251.7462296547315</v>
       </c>
       <c r="E12" t="n">
-        <v>82.81912519929693</v>
+        <v>82.8176248380522</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.61437382973469</v>
+        <v>55.61497935383153</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>233.404569682289</v>
+        <v>233.4071018895287</v>
       </c>
       <c r="E13" t="n">
-        <v>79.63267716554468</v>
+        <v>79.63157095859532</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.61437382973469</v>
+        <v>55.61497935383153</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>233.404569682289</v>
+        <v>233.4071018895287</v>
       </c>
       <c r="E14" t="n">
-        <v>79.63267716554468</v>
+        <v>79.63157095859532</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.15856340601295</v>
+        <v>91.15909639076409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07332707968639099</v>
+        <v>0.07332855322662755</v>
       </c>
       <c r="D15" t="n">
-        <v>381.9145275813405</v>
+        <v>381.916770650535</v>
       </c>
       <c r="E15" t="n">
-        <v>67.53764903293651</v>
+        <v>67.53787453687964</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.97041348936199</v>
+        <v>60.97057798754429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07332713645432462</v>
+        <v>0.073328616367706</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2865843367107</v>
+        <v>255.2872740745913</v>
       </c>
       <c r="E16" t="n">
-        <v>67.53592348873357</v>
+        <v>67.53624170519045</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.98024709794927</v>
+        <v>75.98064073973073</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>318.1292945991136</v>
+        <v>318.1309427772526</v>
       </c>
       <c r="E19" t="n">
         <v>87.61056310256292</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.1546908082009</v>
+        <v>113.1545072130114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1592467577579656</v>
+        <v>0.1592460008083184</v>
       </c>
       <c r="D20" t="n">
-        <v>2645.531432440915</v>
+        <v>2645.522364927938</v>
       </c>
       <c r="E20" t="n">
-        <v>24.40688494819685</v>
+        <v>24.40631231604329</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.6054467228766</v>
+        <v>111.6053038599392</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1512844198700673</v>
+        <v>0.1512837007679025</v>
       </c>
       <c r="D21" t="n">
-        <v>468.2110885439964</v>
+        <v>468.2104836292156</v>
       </c>
       <c r="E21" t="n">
-        <v>24.40688494819685</v>
+        <v>24.40631231604329</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.31487807442855</v>
+        <v>88.31537217413801</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>369.7743944976324</v>
+        <v>369.7764632931159</v>
       </c>
       <c r="E22" t="n">
         <v>695.4824771444306</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.8074398151626</v>
+        <v>55.80748940257747</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.52485919027248</v>
+        <v>92.52539676855304</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07718639966988526</v>
+        <v>0.07718795076487112</v>
       </c>
       <c r="D25" t="n">
-        <v>2549.992411614551</v>
+        <v>2549.98677264353</v>
       </c>
       <c r="E25" t="n">
-        <v>43.13089153894753</v>
+        <v>43.13170696571338</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.77508877531</v>
+        <v>500.7691849697336</v>
       </c>
       <c r="C26" t="n">
-        <v>7.734749722286387</v>
+        <v>7.735081045885713</v>
       </c>
       <c r="D26" t="n">
-        <v>3404.575014481389</v>
+        <v>3404.556536656368</v>
       </c>
       <c r="E26" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F26" t="n">
-        <v>6.747749436920161</v>
+        <v>6.747707000375555</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>185.9150078640805</v>
+        <v>185.9051177857734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.512431652450119</v>
+        <v>0.5124210168725487</v>
       </c>
       <c r="D27" t="n">
-        <v>2824.660889678927</v>
+        <v>2824.639868177436</v>
       </c>
       <c r="E27" t="n">
-        <v>62.89595914447594</v>
+        <v>62.89906872082753</v>
       </c>
       <c r="F27" t="n">
-        <v>6.983117812945482</v>
+        <v>6.983081297785925</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.1251549894739</v>
+        <v>174.1295000763494</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5921654763778229</v>
+        <v>0.5921135830960199</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.110692583205</v>
+        <v>2793.124323397887</v>
       </c>
       <c r="E28" t="n">
-        <v>16.73831779409157</v>
+        <v>16.73398667156085</v>
       </c>
       <c r="F28" t="n">
-        <v>6.849154112275708</v>
+        <v>6.849223352584345</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.8933445362014</v>
+        <v>182.887537365672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.512431652450119</v>
+        <v>0.5124210168725487</v>
       </c>
       <c r="D29" t="n">
-        <v>2818.029358060177</v>
+        <v>2818.017232593641</v>
       </c>
       <c r="E29" t="n">
-        <v>79.63427693856751</v>
+        <v>79.63305539238837</v>
       </c>
       <c r="F29" t="n">
-        <v>6.968624286039132</v>
+        <v>6.968606965540572</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>113.1521962094346</v>
+        <v>113.1520095248237</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1592363472537815</v>
+        <v>0.1592353672101307</v>
       </c>
       <c r="D30" t="n">
-        <v>2645.522990496652</v>
+        <v>2645.513912346589</v>
       </c>
       <c r="E30" t="n">
-        <v>79.63427693856751</v>
+        <v>79.63305539238837</v>
       </c>
       <c r="F30" t="n">
-        <v>7.072808562179689</v>
+        <v>7.0727877803214</v>
       </c>
       <c r="G30" t="n">
-        <v>97.73551837598788</v>
+        <v>97.73512276516662</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.52363036248107</v>
+        <v>92.52411924861923</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0771828541838947</v>
+        <v>0.07718426473059853</v>
       </c>
       <c r="D31" t="n">
-        <v>2549.988837121977</v>
+        <v>2549.98298879158</v>
       </c>
       <c r="E31" t="n">
-        <v>55.22751944457853</v>
+        <v>55.22688782122211</v>
       </c>
       <c r="F31" t="n">
-        <v>7.135264663258473</v>
+        <v>7.135240760252482</v>
       </c>
       <c r="G31" t="n">
-        <v>95.00710164997886</v>
+        <v>95.00680718067818</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62.41703363021094</v>
+        <v>62.41439750262583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02228667694507355</v>
+        <v>0.02228400274388281</v>
       </c>
       <c r="D32" t="n">
-        <v>2549.988837121977</v>
+        <v>2549.98298879158</v>
       </c>
       <c r="E32" t="n">
-        <v>12.0967536768111</v>
+        <v>12.09532925340487</v>
       </c>
       <c r="F32" t="n">
-        <v>7.681914535691854</v>
+        <v>7.681950695035661</v>
       </c>
       <c r="G32" t="n">
-        <v>97.31915646139431</v>
+        <v>97.31910954974965</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.35731943970114</v>
+        <v>24.35680702129469</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003050490079627622</v>
+        <v>0.00305039643822854</v>
       </c>
       <c r="D33" t="n">
-        <v>2460.073626553487</v>
+        <v>2460.085060585675</v>
       </c>
       <c r="E33" t="n">
-        <v>12.0967536768111</v>
+        <v>12.09532925340487</v>
       </c>
       <c r="F33" t="n">
-        <v>8.283828252106581</v>
+        <v>8.283880336175656</v>
       </c>
       <c r="G33" t="n">
-        <v>96.51001037842975</v>
+        <v>96.51051811353705</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.35731943970114</v>
+        <v>24.35680702129469</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003050490079627622</v>
+        <v>0.00305039643822854</v>
       </c>
       <c r="D34" t="n">
-        <v>102.1415907963542</v>
+        <v>102.139447838819</v>
       </c>
       <c r="E34" t="n">
-        <v>12.0967536768111</v>
+        <v>12.09532925340487</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.3798101014026</v>
+        <v>26.379297334196</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>111.2377382361558</v>
+        <v>111.2355953283829</v>
       </c>
       <c r="E35" t="n">
-        <v>12.0967536768111</v>
+        <v>12.09532925340487</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.1548709215739</v>
+        <v>495.1512389231723</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3457.555298887344</v>
+        <v>3457.547291053612</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082083255487167</v>
+        <v>5.082094367931601</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>510.1548709215739</v>
+        <v>510.1512389231723</v>
       </c>
       <c r="C42" t="n">
-        <v>7.129891449502838</v>
+        <v>7.131697920328617</v>
       </c>
       <c r="D42" t="n">
-        <v>3434.502370413423</v>
+        <v>3434.473534590697</v>
       </c>
       <c r="E42" t="n">
-        <v>6.050463468208728</v>
+        <v>6.050796582107718</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
